--- a/BackTest/2019-11-02 BackTest MIX.xlsx
+++ b/BackTest/2019-11-02 BackTest MIX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2600000000000016</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-30.76923076922993</v>
+      </c>
       <c r="L12" t="n">
         <v>9.462999999999999</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.2700000000000014</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-25.92592592592524</v>
+      </c>
       <c r="L13" t="n">
         <v>9.456</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>8.333333333333087</v>
+      </c>
       <c r="L14" t="n">
         <v>9.452000000000002</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.3100000000000005</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>13.04347826086916</v>
+      </c>
       <c r="L15" t="n">
         <v>9.452999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.3900000000000006</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>55.55555555555542</v>
+      </c>
       <c r="L16" t="n">
         <v>9.463999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.4600000000000009</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>13.33333333333302</v>
+      </c>
       <c r="L17" t="n">
         <v>9.471999999999998</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.5300000000000011</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>45.45454545454555</v>
+      </c>
       <c r="L18" t="n">
         <v>9.482999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.5500000000000007</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>52.94117647058817</v>
+      </c>
       <c r="L19" t="n">
         <v>9.499999999999998</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.5500000000000007</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>48.38709677419358</v>
+      </c>
       <c r="L20" t="n">
         <v>9.517999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.6400000000000006</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>10.52631578947349</v>
+      </c>
       <c r="L21" t="n">
         <v>9.523999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.6799999999999997</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-2.43902439024386</v>
+      </c>
       <c r="L22" t="n">
         <v>9.523999999999997</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.6799999999999997</v>
       </c>
       <c r="K23" t="n">
-        <v>-11.7647058823527</v>
+        <v>-10.52631578947349</v>
       </c>
       <c r="L23" t="n">
         <v>9.523</v>
@@ -1466,7 +1488,7 @@
         <v>0.7699999999999996</v>
       </c>
       <c r="K24" t="n">
-        <v>1.298701298701503</v>
+        <v>13.0434782608697</v>
       </c>
       <c r="L24" t="n">
         <v>9.527999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>0.7799999999999994</v>
       </c>
       <c r="K25" t="n">
-        <v>11.11111111111111</v>
+        <v>-2.564102564102518</v>
       </c>
       <c r="L25" t="n">
         <v>9.535</v>
@@ -1564,7 +1586,7 @@
         <v>0.7799999999999994</v>
       </c>
       <c r="K26" t="n">
-        <v>14.28571428571421</v>
+        <v>18.75000000000025</v>
       </c>
       <c r="L26" t="n">
         <v>9.534000000000001</v>
@@ -1613,7 +1635,7 @@
         <v>0.8100000000000005</v>
       </c>
       <c r="K27" t="n">
-        <v>15.94202898550713</v>
+        <v>-14.28571428571465</v>
       </c>
       <c r="L27" t="n">
         <v>9.537000000000001</v>
@@ -1662,7 +1684,7 @@
         <v>0.8699999999999992</v>
       </c>
       <c r="K28" t="n">
-        <v>1.408450704225324</v>
+        <v>-37.49999999999993</v>
       </c>
       <c r="L28" t="n">
         <v>9.527000000000001</v>
@@ -1711,7 +1733,7 @@
         <v>0.9499999999999993</v>
       </c>
       <c r="K29" t="n">
-        <v>17.33333333333348</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L29" t="n">
         <v>9.523</v>
@@ -1760,7 +1782,7 @@
         <v>1.1</v>
       </c>
       <c r="K30" t="n">
-        <v>-1.123595505617955</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L30" t="n">
         <v>9.504000000000001</v>
@@ -1809,7 +1831,7 @@
         <v>1.15</v>
       </c>
       <c r="K31" t="n">
-        <v>-9.890109890109873</v>
+        <v>-23.40425531914916</v>
       </c>
       <c r="L31" t="n">
         <v>9.489000000000001</v>
@@ -1860,7 +1882,7 @@
         <v>1.210000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>-5.263157894736921</v>
+        <v>-9.433962264151058</v>
       </c>
       <c r="L32" t="n">
         <v>9.484</v>
@@ -1911,7 +1933,7 @@
         <v>1.24</v>
       </c>
       <c r="K33" t="n">
-        <v>-3.09278350515476</v>
+        <v>-23.40425531914916</v>
       </c>
       <c r="L33" t="n">
         <v>9.481999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>1.25</v>
       </c>
       <c r="K34" t="n">
-        <v>-5.263157894736921</v>
+        <v>-23.40425531914916</v>
       </c>
       <c r="L34" t="n">
         <v>9.472</v>
@@ -2013,7 +2035,7 @@
         <v>1.27</v>
       </c>
       <c r="K35" t="n">
-        <v>-6.250000000000059</v>
+        <v>-26.5306122448981</v>
       </c>
       <c r="L35" t="n">
         <v>9.459</v>
@@ -2064,7 +2086,7 @@
         <v>1.27</v>
       </c>
       <c r="K36" t="n">
-        <v>-15.90909090909099</v>
+        <v>-21.73913043478257</v>
       </c>
       <c r="L36" t="n">
         <v>9.446000000000002</v>
@@ -2115,7 +2137,7 @@
         <v>1.34</v>
       </c>
       <c r="K37" t="n">
-        <v>-15.90909090909099</v>
+        <v>-23.40425531914916</v>
       </c>
       <c r="L37" t="n">
         <v>9.429</v>
@@ -2166,7 +2188,7 @@
         <v>1.380000000000001</v>
       </c>
       <c r="K38" t="n">
-        <v>-20</v>
+        <v>-34.88372093023252</v>
       </c>
       <c r="L38" t="n">
         <v>9.422000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>1.380000000000001</v>
       </c>
       <c r="K39" t="n">
-        <v>-22.89156626506018</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>9.407000000000002</v>
@@ -2268,7 +2290,7 @@
         <v>1.440000000000001</v>
       </c>
       <c r="K40" t="n">
-        <v>-14.60674157303359</v>
+        <v>37.93103448275892</v>
       </c>
       <c r="L40" t="n">
         <v>9.413000000000002</v>
@@ -2319,7 +2341,7 @@
         <v>1.440000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>-4.999999999999889</v>
+        <v>21.73913043478288</v>
       </c>
       <c r="L41" t="n">
         <v>9.424000000000003</v>
@@ -2370,7 +2392,7 @@
         <v>1.440000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>10.00000000000062</v>
       </c>
       <c r="L42" t="n">
         <v>9.429000000000006</v>
@@ -2421,7 +2443,7 @@
         <v>1.440000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.263157894737629</v>
       </c>
       <c r="L43" t="n">
         <v>9.431000000000006</v>
@@ -2472,7 +2494,7 @@
         <v>1.48</v>
       </c>
       <c r="K44" t="n">
-        <v>-7.042253521126852</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L44" t="n">
         <v>9.436000000000005</v>
@@ -2523,7 +2545,7 @@
         <v>1.52</v>
       </c>
       <c r="K45" t="n">
-        <v>-13.51351351351346</v>
+        <v>12.00000000000045</v>
       </c>
       <c r="L45" t="n">
         <v>9.439000000000004</v>
@@ -2574,7 +2596,7 @@
         <v>1.620000000000001</v>
       </c>
       <c r="K46" t="n">
-        <v>-23.80952380952389</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>9.432000000000006</v>
@@ -2625,7 +2647,7 @@
         <v>1.730000000000002</v>
       </c>
       <c r="K47" t="n">
-        <v>-6.521739130434631</v>
+        <v>20</v>
       </c>
       <c r="L47" t="n">
         <v>9.443000000000005</v>
@@ -2676,7 +2698,7 @@
         <v>1.800000000000002</v>
       </c>
       <c r="K48" t="n">
-        <v>-7.526881720430111</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>9.443000000000005</v>
@@ -2727,7 +2749,7 @@
         <v>1.810000000000002</v>
       </c>
       <c r="K49" t="n">
-        <v>-18.60465116279065</v>
+        <v>-18.91891891891894</v>
       </c>
       <c r="L49" t="n">
         <v>9.442000000000004</v>
@@ -2778,7 +2800,7 @@
         <v>1.810000000000002</v>
       </c>
       <c r="K50" t="n">
-        <v>-1.408450704225317</v>
+        <v>-18.91891891891894</v>
       </c>
       <c r="L50" t="n">
         <v>9.435000000000006</v>
@@ -2829,7 +2851,7 @@
         <v>1.870000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>13.88888888888883</v>
+        <v>-2.325581395349202</v>
       </c>
       <c r="L51" t="n">
         <v>9.434000000000006</v>
@@ -2880,7 +2902,7 @@
         <v>1.870000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>6.06060606060593</v>
+        <v>-2.325581395349202</v>
       </c>
       <c r="L52" t="n">
         <v>9.433000000000007</v>
@@ -2931,7 +2953,7 @@
         <v>1.93</v>
       </c>
       <c r="K53" t="n">
-        <v>-7.246376811594053</v>
+        <v>-24.44444444444436</v>
       </c>
       <c r="L53" t="n">
         <v>9.426000000000007</v>
@@ -2982,7 +3004,7 @@
         <v>1.94</v>
       </c>
       <c r="K54" t="n">
-        <v>-7.246376811594053</v>
+        <v>-14.28571428571441</v>
       </c>
       <c r="L54" t="n">
         <v>9.416000000000007</v>
@@ -3033,7 +3055,7 @@
         <v>1.94</v>
       </c>
       <c r="K55" t="n">
-        <v>-4.477611940298413</v>
+        <v>12.50000000000035</v>
       </c>
       <c r="L55" t="n">
         <v>9.410000000000007</v>
@@ -3084,7 +3106,7 @@
         <v>1.949999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>-5.882352941176348</v>
+        <v>-36.36363636363688</v>
       </c>
       <c r="L56" t="n">
         <v>9.413000000000007</v>
@@ -3135,7 +3157,7 @@
         <v>1.949999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>4.918032786885437</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L57" t="n">
         <v>9.405000000000008</v>
@@ -3186,7 +3208,7 @@
         <v>1.999999999999998</v>
       </c>
       <c r="K58" t="n">
-        <v>6.451612903225695</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L58" t="n">
         <v>9.409000000000008</v>
@@ -3237,7 +3259,7 @@
         <v>2.079999999999998</v>
       </c>
       <c r="K59" t="n">
-        <v>-5.714285714285867</v>
+        <v>-11.1111111111117</v>
       </c>
       <c r="L59" t="n">
         <v>9.406000000000008</v>
@@ -3288,7 +3310,7 @@
         <v>2.149999999999999</v>
       </c>
       <c r="K60" t="n">
-        <v>-4.225352112676233</v>
+        <v>-7.142857142857053</v>
       </c>
       <c r="L60" t="n">
         <v>9.410000000000007</v>
@@ -3339,7 +3361,7 @@
         <v>2.169999999999998</v>
       </c>
       <c r="K61" t="n">
-        <v>-1.36986301369885</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>9.410000000000007</v>
@@ -3390,7 +3412,7 @@
         <v>2.179999999999998</v>
       </c>
       <c r="K62" t="n">
-        <v>-2.702702702702898</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L62" t="n">
         <v>9.409000000000006</v>
@@ -3441,7 +3463,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L63" t="n">
         <v>9.416000000000007</v>
@@ -3492,7 +3514,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="K64" t="n">
-        <v>-5.555555555555445</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L64" t="n">
         <v>9.422000000000006</v>
@@ -3543,7 +3565,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L65" t="n">
         <v>9.428000000000006</v>
@@ -3594,7 +3616,7 @@
         <v>2.210000000000001</v>
       </c>
       <c r="K66" t="n">
-        <v>15.25423728813557</v>
+        <v>23.07692307692244</v>
       </c>
       <c r="L66" t="n">
         <v>9.434000000000006</v>
@@ -3645,7 +3667,7 @@
         <v>2.220000000000002</v>
       </c>
       <c r="K67" t="n">
-        <v>-2.040816326530568</v>
+        <v>9.09090909090953</v>
       </c>
       <c r="L67" t="n">
         <v>9.441000000000006</v>
@@ -3696,7 +3718,7 @@
         <v>2.300000000000002</v>
       </c>
       <c r="K68" t="n">
-        <v>-3.999999999999915</v>
+        <v>9.09090909090953</v>
       </c>
       <c r="L68" t="n">
         <v>9.435000000000006</v>
@@ -3747,7 +3769,7 @@
         <v>2.310000000000002</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>-24.99999999999889</v>
       </c>
       <c r="L69" t="n">
         <v>9.438000000000006</v>
@@ -3798,7 +3820,7 @@
         <v>2.320000000000002</v>
       </c>
       <c r="K70" t="n">
-        <v>-1.960784313725449</v>
+        <v>-46.66666666666445</v>
       </c>
       <c r="L70" t="n">
         <v>9.433000000000007</v>
@@ -3849,7 +3871,7 @@
         <v>2.340000000000003</v>
       </c>
       <c r="K71" t="n">
-        <v>-19.14893617021264</v>
+        <v>-49.99999999999834</v>
       </c>
       <c r="L71" t="n">
         <v>9.424000000000007</v>
@@ -3900,7 +3922,7 @@
         <v>2.390000000000004</v>
       </c>
       <c r="K72" t="n">
-        <v>-7.692307692307482</v>
+        <v>-26.31578947368391</v>
       </c>
       <c r="L72" t="n">
         <v>9.421000000000006</v>
@@ -3951,7 +3973,7 @@
         <v>2.440000000000005</v>
       </c>
       <c r="K73" t="n">
-        <v>-5.882352941176634</v>
+        <v>-41.66666666666629</v>
       </c>
       <c r="L73" t="n">
         <v>9.411000000000007</v>
@@ -4002,7 +4024,7 @@
         <v>2.440000000000005</v>
       </c>
       <c r="K74" t="n">
-        <v>-8.000000000000099</v>
+        <v>-41.66666666666629</v>
       </c>
       <c r="L74" t="n">
         <v>9.401000000000007</v>
@@ -4053,7 +4075,7 @@
         <v>2.460000000000006</v>
       </c>
       <c r="K75" t="n">
-        <v>-3.846153846153714</v>
+        <v>-27.9999999999988</v>
       </c>
       <c r="L75" t="n">
         <v>9.393000000000006</v>
@@ -4104,7 +4126,7 @@
         <v>2.470000000000008</v>
       </c>
       <c r="K76" t="n">
-        <v>-3.846153846154043</v>
+        <v>-35.99999999999989</v>
       </c>
       <c r="L76" t="n">
         <v>9.385000000000007</v>
@@ -4155,7 +4177,7 @@
         <v>2.540000000000008</v>
       </c>
       <c r="K77" t="n">
-        <v>8.474576271186136</v>
+        <v>24.99999999999889</v>
       </c>
       <c r="L77" t="n">
         <v>9.383000000000006</v>
@@ -4206,7 +4228,7 @@
         <v>2.610000000000008</v>
       </c>
       <c r="K78" t="n">
-        <v>-11.47540983606543</v>
+        <v>-6.666666666666983</v>
       </c>
       <c r="L78" t="n">
         <v>9.382000000000009</v>
@@ -4257,7 +4279,7 @@
         <v>2.680000000000009</v>
       </c>
       <c r="K79" t="n">
-        <v>13.33333333333312</v>
+        <v>16.66666666666601</v>
       </c>
       <c r="L79" t="n">
         <v>9.387000000000008</v>
@@ -4308,7 +4330,7 @@
         <v>2.710000000000008</v>
       </c>
       <c r="K80" t="n">
-        <v>-3.571428571428435</v>
+        <v>13.51351351351354</v>
       </c>
       <c r="L80" t="n">
         <v>9.390000000000008</v>
@@ -4359,7 +4381,7 @@
         <v>2.720000000000008</v>
       </c>
       <c r="K81" t="n">
-        <v>-5.454545454545244</v>
+        <v>3.030303030302933</v>
       </c>
       <c r="L81" t="n">
         <v>9.396000000000008</v>
@@ -4410,7 +4432,7 @@
         <v>2.730000000000008</v>
       </c>
       <c r="K82" t="n">
-        <v>-5.454545454545244</v>
+        <v>17.24137931034491</v>
       </c>
       <c r="L82" t="n">
         <v>9.396000000000008</v>
@@ -4461,7 +4483,7 @@
         <v>2.730000000000008</v>
       </c>
       <c r="K83" t="n">
-        <v>-9.43396226415093</v>
+        <v>17.24137931034491</v>
       </c>
       <c r="L83" t="n">
         <v>9.401000000000007</v>
@@ -4512,7 +4534,7 @@
         <v>2.730000000000008</v>
       </c>
       <c r="K84" t="n">
-        <v>-9.43396226415093</v>
+        <v>11.11111111111082</v>
       </c>
       <c r="L84" t="n">
         <v>9.406000000000008</v>
@@ -4563,7 +4585,7 @@
         <v>2.810000000000008</v>
       </c>
       <c r="K85" t="n">
-        <v>-21.3114754098359</v>
+        <v>-11.7647058823527</v>
       </c>
       <c r="L85" t="n">
         <v>9.401000000000007</v>
@@ -4614,7 +4636,7 @@
         <v>2.830000000000007</v>
       </c>
       <c r="K86" t="n">
-        <v>-22.5806451612899</v>
+        <v>-44.82758620689634</v>
       </c>
       <c r="L86" t="n">
         <v>9.395000000000007</v>
@@ -4665,7 +4687,7 @@
         <v>2.920000000000007</v>
       </c>
       <c r="K87" t="n">
-        <v>-8.571428571428585</v>
+        <v>9.677419354839117</v>
       </c>
       <c r="L87" t="n">
         <v>9.391000000000009</v>
@@ -4716,7 +4738,7 @@
         <v>2.920000000000007</v>
       </c>
       <c r="K88" t="n">
-        <v>3.225806451612811</v>
+        <v>-16.66666666666642</v>
       </c>
       <c r="L88" t="n">
         <v>9.394000000000009</v>
@@ -4767,7 +4789,7 @@
         <v>2.920000000000007</v>
       </c>
       <c r="K89" t="n">
-        <v>1.639344262295034</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L89" t="n">
         <v>9.390000000000009</v>
@@ -4818,7 +4840,7 @@
         <v>2.930000000000007</v>
       </c>
       <c r="K90" t="n">
-        <v>4.918032786885103</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L90" t="n">
         <v>9.390000000000009</v>
@@ -4869,7 +4891,7 @@
         <v>2.930000000000007</v>
       </c>
       <c r="K91" t="n">
-        <v>8.474576271186512</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>9.389000000000008</v>
@@ -4920,7 +4942,7 @@
         <v>3.000000000000007</v>
       </c>
       <c r="K92" t="n">
-        <v>-11.47540983606556</v>
+        <v>-25.92592592592607</v>
       </c>
       <c r="L92" t="n">
         <v>9.382000000000009</v>
@@ -4971,7 +4993,7 @@
         <v>3.080000000000007</v>
       </c>
       <c r="K93" t="n">
-        <v>9.375000000000043</v>
+        <v>2.857142857142799</v>
       </c>
       <c r="L93" t="n">
         <v>9.38300000000001</v>
@@ -5022,7 +5044,7 @@
         <v>3.080000000000007</v>
       </c>
       <c r="K94" t="n">
-        <v>9.375000000000043</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L94" t="n">
         <v>9.384000000000011</v>
@@ -5073,7 +5095,7 @@
         <v>3.090000000000007</v>
       </c>
       <c r="K95" t="n">
-        <v>4.761904761904654</v>
+        <v>38.46153846153836</v>
       </c>
       <c r="L95" t="n">
         <v>9.39200000000001</v>
@@ -5124,7 +5146,7 @@
         <v>3.200000000000006</v>
       </c>
       <c r="K96" t="n">
-        <v>-9.589041095890224</v>
+        <v>-35.71428571428567</v>
       </c>
       <c r="L96" t="n">
         <v>9.391000000000009</v>
@@ -5175,7 +5197,7 @@
         <v>3.300000000000006</v>
       </c>
       <c r="K97" t="n">
-        <v>-5.263157894736744</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>9.391000000000009</v>
@@ -5226,7 +5248,7 @@
         <v>3.320000000000006</v>
       </c>
       <c r="K98" t="n">
-        <v>7.042253521126887</v>
+        <v>4.999999999999911</v>
       </c>
       <c r="L98" t="n">
         <v>9.39300000000001</v>
@@ -5277,7 +5299,7 @@
         <v>3.320000000000006</v>
       </c>
       <c r="K99" t="n">
-        <v>-3.124999999999948</v>
+        <v>2.564102564102518</v>
       </c>
       <c r="L99" t="n">
         <v>9.395000000000008</v>
@@ -5328,7 +5350,7 @@
         <v>3.330000000000005</v>
       </c>
       <c r="K100" t="n">
-        <v>3.225806451612848</v>
+        <v>4.999999999999911</v>
       </c>
       <c r="L100" t="n">
         <v>9.397000000000009</v>
@@ -5379,7 +5401,7 @@
         <v>3.340000000000005</v>
       </c>
       <c r="K101" t="n">
-        <v>3.225806451612848</v>
+        <v>29.41176470588242</v>
       </c>
       <c r="L101" t="n">
         <v>9.400000000000009</v>
@@ -5430,7 +5452,7 @@
         <v>3.350000000000005</v>
       </c>
       <c r="K102" t="n">
-        <v>3.225806451612848</v>
+        <v>3.703703703703655</v>
       </c>
       <c r="L102" t="n">
         <v>9.40900000000001</v>
@@ -5487,7 +5509,7 @@
         <v>3.350000000000005</v>
       </c>
       <c r="K103" t="n">
-        <v>3.225806451612848</v>
+        <v>3.703703703703655</v>
       </c>
       <c r="L103" t="n">
         <v>9.410000000000009</v>
@@ -5544,7 +5566,7 @@
         <v>3.350000000000005</v>
       </c>
       <c r="K104" t="n">
-        <v>3.225806451612848</v>
+        <v>7.692307692307587</v>
       </c>
       <c r="L104" t="n">
         <v>9.411000000000008</v>
@@ -5603,7 +5625,7 @@
         <v>3.350000000000005</v>
       </c>
       <c r="K105" t="n">
-        <v>18.51851851851854</v>
+        <v>86.66666666666683</v>
       </c>
       <c r="L105" t="n">
         <v>9.413000000000007</v>
@@ -5664,7 +5686,7 @@
         <v>3.360000000000005</v>
       </c>
       <c r="K106" t="n">
-        <v>24.52830188679238</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L106" t="n">
         <v>9.427000000000008</v>
@@ -5727,7 +5749,7 @@
         <v>3.390000000000004</v>
       </c>
       <c r="K107" t="n">
-        <v>2.127659574468053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L107" t="n">
         <v>9.428000000000008</v>
@@ -5786,7 +5808,7 @@
         <v>3.390000000000004</v>
       </c>
       <c r="K108" t="n">
-        <v>2.127659574468053</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L108" t="n">
         <v>9.427000000000007</v>
@@ -5845,7 +5867,7 @@
         <v>3.480000000000004</v>
       </c>
       <c r="K109" t="n">
-        <v>-14.28571428571438</v>
+        <v>-73.33333333333366</v>
       </c>
       <c r="L109" t="n">
         <v>9.417000000000005</v>
@@ -5904,7 +5926,7 @@
         <v>3.500000000000004</v>
       </c>
       <c r="K110" t="n">
-        <v>-19.2982456140351</v>
+        <v>-87.50000000000014</v>
       </c>
       <c r="L110" t="n">
         <v>9.404000000000005</v>
@@ -5961,7 +5983,7 @@
         <v>3.510000000000005</v>
       </c>
       <c r="K111" t="n">
-        <v>-20.68965517241402</v>
+        <v>-87.50000000000028</v>
       </c>
       <c r="L111" t="n">
         <v>9.389000000000005</v>
@@ -6018,7 +6040,7 @@
         <v>3.520000000000005</v>
       </c>
       <c r="K112" t="n">
-        <v>-11.53846153846168</v>
+        <v>-88.2352941176473</v>
       </c>
       <c r="L112" t="n">
         <v>9.374000000000004</v>
@@ -6075,7 +6097,7 @@
         <v>3.530000000000005</v>
       </c>
       <c r="K113" t="n">
-        <v>-28.88888888888922</v>
+        <v>-77.77777777777821</v>
       </c>
       <c r="L113" t="n">
         <v>9.360000000000003</v>
@@ -6132,7 +6154,7 @@
         <v>3.610000000000005</v>
       </c>
       <c r="K114" t="n">
-        <v>-9.43396226415112</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L114" t="n">
         <v>9.354000000000003</v>
@@ -6189,7 +6211,7 @@
         <v>3.620000000000006</v>
       </c>
       <c r="K115" t="n">
-        <v>-5.660377358490452</v>
+        <v>-23.07692307692244</v>
       </c>
       <c r="L115" t="n">
         <v>9.349</v>
@@ -6246,7 +6268,7 @@
         <v>3.620000000000006</v>
       </c>
       <c r="K116" t="n">
-        <v>19.04761904761907</v>
+        <v>-13.04347826086916</v>
       </c>
       <c r="L116" t="n">
         <v>9.343</v>
@@ -6303,7 +6325,7 @@
         <v>3.620000000000006</v>
       </c>
       <c r="K117" t="n">
-        <v>-6.249999999999861</v>
+        <v>-13.04347826086916</v>
       </c>
       <c r="L117" t="n">
         <v>9.34</v>
@@ -6360,7 +6382,7 @@
         <v>3.620000000000006</v>
       </c>
       <c r="K118" t="n">
-        <v>-13.33333333333302</v>
+        <v>42.85714285714249</v>
       </c>
       <c r="L118" t="n">
         <v>9.337</v>
@@ -6417,7 +6439,7 @@
         <v>3.630000000000006</v>
       </c>
       <c r="K119" t="n">
-        <v>-9.677419354838488</v>
+        <v>69.23076923076776</v>
       </c>
       <c r="L119" t="n">
         <v>9.343999999999999</v>
@@ -6474,7 +6496,7 @@
         <v>3.640000000000006</v>
       </c>
       <c r="K120" t="n">
-        <v>-16.12903225806415</v>
+        <v>69.23076923077008</v>
       </c>
       <c r="L120" t="n">
         <v>9.352</v>
@@ -6531,7 +6553,7 @@
         <v>3.760000000000007</v>
       </c>
       <c r="K121" t="n">
-        <v>-42.85714285714262</v>
+        <v>-8.333333333333087</v>
       </c>
       <c r="L121" t="n">
         <v>9.349</v>
@@ -6582,7 +6604,7 @@
         <v>3.770000000000007</v>
       </c>
       <c r="K122" t="n">
-        <v>-42.85714285714262</v>
+        <v>-16.66666666666617</v>
       </c>
       <c r="L122" t="n">
         <v>9.346</v>
@@ -6633,7 +6655,7 @@
         <v>3.870000000000006</v>
       </c>
       <c r="K123" t="n">
-        <v>-15.38461538461536</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L123" t="n">
         <v>9.352</v>
@@ -6684,7 +6706,7 @@
         <v>3.880000000000006</v>
       </c>
       <c r="K124" t="n">
-        <v>-16.98113207547163</v>
+        <v>-15.38461538461575</v>
       </c>
       <c r="L124" t="n">
         <v>9.349</v>
@@ -6735,7 +6757,7 @@
         <v>3.880000000000006</v>
       </c>
       <c r="K125" t="n">
-        <v>-16.98113207547163</v>
+        <v>-15.38461538461575</v>
       </c>
       <c r="L125" t="n">
         <v>9.345000000000002</v>
@@ -6786,7 +6808,7 @@
         <v>3.890000000000006</v>
       </c>
       <c r="K126" t="n">
-        <v>-20.75471698113192</v>
+        <v>-18.51851851851881</v>
       </c>
       <c r="L126" t="n">
         <v>9.340000000000002</v>
@@ -6837,7 +6859,7 @@
         <v>3.940000000000007</v>
       </c>
       <c r="K127" t="n">
-        <v>-23.63636363636367</v>
+        <v>-31.25000000000042</v>
       </c>
       <c r="L127" t="n">
         <v>9.330000000000002</v>
@@ -6888,7 +6910,7 @@
         <v>3.940000000000007</v>
       </c>
       <c r="K128" t="n">
-        <v>-23.63636363636367</v>
+        <v>-35.48387096774227</v>
       </c>
       <c r="L128" t="n">
         <v>9.320000000000004</v>
@@ -6939,7 +6961,7 @@
         <v>4.020000000000007</v>
       </c>
       <c r="K129" t="n">
-        <v>7.407407407407213</v>
+        <v>-5.263157894737187</v>
       </c>
       <c r="L129" t="n">
         <v>9.317000000000004</v>
@@ -6990,7 +7012,7 @@
         <v>4.060000000000008</v>
       </c>
       <c r="K130" t="n">
-        <v>17.85714285714266</v>
+        <v>46.66666666666674</v>
       </c>
       <c r="L130" t="n">
         <v>9.319000000000004</v>
@@ -7041,7 +7063,7 @@
         <v>4.120000000000008</v>
       </c>
       <c r="K131" t="n">
-        <v>27.86885245901654</v>
+        <v>60</v>
       </c>
       <c r="L131" t="n">
         <v>9.339000000000002</v>
@@ -7092,7 +7114,7 @@
         <v>4.120000000000008</v>
       </c>
       <c r="K132" t="n">
-        <v>30.00000000000009</v>
+        <v>44.00000000000017</v>
       </c>
       <c r="L132" t="n">
         <v>9.360000000000003</v>
@@ -7143,7 +7165,7 @@
         <v>4.120000000000008</v>
       </c>
       <c r="K133" t="n">
-        <v>28.81355932203402</v>
+        <v>50</v>
       </c>
       <c r="L133" t="n">
         <v>9.371000000000004</v>
@@ -7194,7 +7216,7 @@
         <v>4.130000000000008</v>
       </c>
       <c r="K134" t="n">
-        <v>19.23076923076939</v>
+        <v>51.99999999999994</v>
       </c>
       <c r="L134" t="n">
         <v>9.384000000000004</v>
@@ -7245,7 +7267,7 @@
         <v>4.140000000000008</v>
       </c>
       <c r="K135" t="n">
-        <v>15.38461538461536</v>
+        <v>51.99999999999994</v>
       </c>
       <c r="L135" t="n">
         <v>9.396000000000004</v>
@@ -7296,7 +7318,7 @@
         <v>4.200000000000008</v>
       </c>
       <c r="K136" t="n">
-        <v>3.448275862068881</v>
+        <v>46.15384615384626</v>
       </c>
       <c r="L136" t="n">
         <v>9.403000000000004</v>
@@ -7347,7 +7369,7 @@
         <v>4.250000000000007</v>
       </c>
       <c r="K137" t="n">
-        <v>11.11111111111086</v>
+        <v>54.83870967741924</v>
       </c>
       <c r="L137" t="n">
         <v>9.420000000000005</v>
@@ -7398,7 +7420,7 @@
         <v>4.270000000000007</v>
       </c>
       <c r="K138" t="n">
-        <v>7.692307692307525</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L138" t="n">
         <v>9.435000000000006</v>
@@ -7449,7 +7471,7 @@
         <v>4.290000000000006</v>
       </c>
       <c r="K139" t="n">
-        <v>3.030303030302965</v>
+        <v>4.347826086956454</v>
       </c>
       <c r="L139" t="n">
         <v>9.440000000000005</v>
@@ -7500,7 +7522,7 @@
         <v>4.300000000000006</v>
       </c>
       <c r="K140" t="n">
-        <v>3.030303030302965</v>
+        <v>-33.33333333333399</v>
       </c>
       <c r="L140" t="n">
         <v>9.440000000000005</v>
@@ -7551,7 +7573,7 @@
         <v>4.310000000000006</v>
       </c>
       <c r="K141" t="n">
-        <v>23.63636363636382</v>
+        <v>-36.84210526315849</v>
       </c>
       <c r="L141" t="n">
         <v>9.433000000000003</v>
@@ -7602,7 +7624,7 @@
         <v>4.310000000000006</v>
       </c>
       <c r="K142" t="n">
-        <v>25.92592592592607</v>
+        <v>-36.84210526315849</v>
       </c>
       <c r="L142" t="n">
         <v>9.426000000000005</v>
@@ -7653,7 +7675,7 @@
         <v>4.350000000000005</v>
       </c>
       <c r="K143" t="n">
-        <v>16.66666666666673</v>
+        <v>-18.18181818181884</v>
       </c>
       <c r="L143" t="n">
         <v>9.423000000000005</v>
@@ -7704,7 +7726,7 @@
         <v>4.350000000000005</v>
       </c>
       <c r="K144" t="n">
-        <v>19.14893617021278</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L144" t="n">
         <v>9.419000000000006</v>
@@ -7755,7 +7777,7 @@
         <v>4.380000000000004</v>
       </c>
       <c r="K145" t="n">
-        <v>12.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>9.413000000000006</v>
@@ -7806,7 +7828,7 @@
         <v>4.380000000000004</v>
       </c>
       <c r="K146" t="n">
-        <v>14.28571428571439</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L146" t="n">
         <v>9.413000000000006</v>
@@ -7857,7 +7879,7 @@
         <v>4.420000000000005</v>
       </c>
       <c r="K147" t="n">
-        <v>16.66666666666673</v>
+        <v>-46.6666666666673</v>
       </c>
       <c r="L147" t="n">
         <v>9.404000000000005</v>
@@ -7908,7 +7930,7 @@
         <v>4.460000000000006</v>
       </c>
       <c r="K148" t="n">
-        <v>23.07692307692329</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L148" t="n">
         <v>9.401000000000005</v>
@@ -7959,7 +7981,7 @@
         <v>4.500000000000007</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L149" t="n">
         <v>9.396000000000004</v>
@@ -8010,7 +8032,7 @@
         <v>4.560000000000008</v>
       </c>
       <c r="K150" t="n">
-        <v>3.999999999999915</v>
+        <v>11.99999999999966</v>
       </c>
       <c r="L150" t="n">
         <v>9.398000000000005</v>
@@ -8061,7 +8083,7 @@
         <v>4.560000000000008</v>
       </c>
       <c r="K151" t="n">
-        <v>-9.09090909090931</v>
+        <v>11.99999999999966</v>
       </c>
       <c r="L151" t="n">
         <v>9.401000000000005</v>
@@ -8112,7 +8134,7 @@
         <v>4.600000000000009</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>12.00000000000028</v>
       </c>
       <c r="L152" t="n">
         <v>9.408000000000005</v>
@@ -8163,7 +8185,7 @@
         <v>4.61000000000001</v>
       </c>
       <c r="K153" t="n">
-        <v>-2.040816326530923</v>
+        <v>7.692307692307376</v>
       </c>
       <c r="L153" t="n">
         <v>9.410000000000005</v>
@@ -8214,7 +8236,7 @@
         <v>4.630000000000011</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>27.99999999999932</v>
       </c>
       <c r="L154" t="n">
         <v>9.414000000000005</v>
@@ -8265,7 +8287,7 @@
         <v>4.650000000000013</v>
       </c>
       <c r="K155" t="n">
-        <v>-1.960784313725777</v>
+        <v>18.51851851851754</v>
       </c>
       <c r="L155" t="n">
         <v>9.419000000000004</v>
@@ -8316,7 +8338,7 @@
         <v>4.670000000000014</v>
       </c>
       <c r="K156" t="n">
-        <v>14.89361702127647</v>
+        <v>43.99999999999892</v>
       </c>
       <c r="L156" t="n">
         <v>9.426000000000004</v>
@@ -8367,7 +8389,7 @@
         <v>4.680000000000014</v>
       </c>
       <c r="K157" t="n">
-        <v>2.325581395349164</v>
+        <v>27.27272727272654</v>
       </c>
       <c r="L157" t="n">
         <v>9.436000000000003</v>
@@ -8418,7 +8440,7 @@
         <v>4.770000000000016</v>
       </c>
       <c r="K158" t="n">
-        <v>-11.99999999999989</v>
+        <v>3.703703703703508</v>
       </c>
       <c r="L158" t="n">
         <v>9.433000000000003</v>
@@ -8469,7 +8491,7 @@
         <v>4.860000000000017</v>
       </c>
       <c r="K159" t="n">
-        <v>8.77192982456136</v>
+        <v>13.33333333333321</v>
       </c>
       <c r="L159" t="n">
         <v>9.443000000000001</v>
@@ -8520,7 +8542,7 @@
         <v>4.930000000000017</v>
       </c>
       <c r="K160" t="n">
-        <v>-1.587301587301525</v>
+        <v>-8.108108108107718</v>
       </c>
       <c r="L160" t="n">
         <v>9.440000000000001</v>
@@ -8571,7 +8593,7 @@
         <v>4.990000000000016</v>
       </c>
       <c r="K161" t="n">
-        <v>8.823529411764383</v>
+        <v>-2.564102564102914</v>
       </c>
       <c r="L161" t="n">
         <v>9.443000000000001</v>
@@ -8622,7 +8644,7 @@
         <v>5.030000000000015</v>
       </c>
       <c r="K162" t="n">
-        <v>2.777777777777682</v>
+        <v>-9.523809523809202</v>
       </c>
       <c r="L162" t="n">
         <v>9.438000000000002</v>
@@ -8673,7 +8695,7 @@
         <v>5.080000000000016</v>
       </c>
       <c r="K163" t="n">
-        <v>4.109589041095984</v>
+        <v>-2.222222222222152</v>
       </c>
       <c r="L163" t="n">
         <v>9.439000000000004</v>
@@ -8724,7 +8746,7 @@
         <v>5.080000000000016</v>
       </c>
       <c r="K164" t="n">
-        <v>4.109589041095984</v>
+        <v>2.325581395349183</v>
       </c>
       <c r="L164" t="n">
         <v>9.438000000000002</v>
@@ -8775,7 +8797,7 @@
         <v>5.100000000000016</v>
       </c>
       <c r="K165" t="n">
-        <v>11.11111111111095</v>
+        <v>2.32558139534878</v>
       </c>
       <c r="L165" t="n">
         <v>9.441000000000003</v>
@@ -8826,7 +8848,7 @@
         <v>5.100000000000016</v>
       </c>
       <c r="K166" t="n">
-        <v>11.11111111111095</v>
+        <v>4.761904761904641</v>
       </c>
       <c r="L166" t="n">
         <v>9.442000000000004</v>
@@ -8877,7 +8899,7 @@
         <v>5.100000000000016</v>
       </c>
       <c r="K167" t="n">
-        <v>17.64705882352929</v>
+        <v>33.33333333333369</v>
       </c>
       <c r="L167" t="n">
         <v>9.444000000000003</v>
@@ -8928,7 +8950,7 @@
         <v>5.100000000000016</v>
       </c>
       <c r="K168" t="n">
-        <v>12.49999999999983</v>
+        <v>8.33333333333321</v>
       </c>
       <c r="L168" t="n">
         <v>9.455000000000002</v>
@@ -8979,7 +9001,7 @@
         <v>5.160000000000016</v>
       </c>
       <c r="K169" t="n">
-        <v>9.090909090909042</v>
+        <v>13.04347826086937</v>
       </c>
       <c r="L169" t="n">
         <v>9.451000000000002</v>
@@ -9030,7 +9052,7 @@
         <v>5.210000000000017</v>
       </c>
       <c r="K170" t="n">
-        <v>7.692307692307693</v>
+        <v>9.090909090909678</v>
       </c>
       <c r="L170" t="n">
         <v>9.459000000000001</v>
@@ -9081,7 +9103,7 @@
         <v>5.220000000000017</v>
       </c>
       <c r="K171" t="n">
-        <v>9.090909090909042</v>
+        <v>36.8421052631578</v>
       </c>
       <c r="L171" t="n">
         <v>9.462000000000002</v>
@@ -9132,7 +9154,7 @@
         <v>5.270000000000017</v>
       </c>
       <c r="K172" t="n">
-        <v>-4.477611940298618</v>
+        <v>-15.78947368421102</v>
       </c>
       <c r="L172" t="n">
         <v>9.464000000000002</v>
@@ -9183,7 +9205,7 @@
         <v>5.320000000000018</v>
       </c>
       <c r="K173" t="n">
-        <v>4.22535211267617</v>
+        <v>8.333333333333087</v>
       </c>
       <c r="L173" t="n">
         <v>9.466000000000003</v>
@@ -9234,7 +9256,7 @@
         <v>5.350000000000019</v>
       </c>
       <c r="K174" t="n">
-        <v>-2.777777777777935</v>
+        <v>-12.00000000000028</v>
       </c>
       <c r="L174" t="n">
         <v>9.465000000000003</v>
@@ -9285,7 +9307,7 @@
         <v>5.430000000000019</v>
       </c>
       <c r="K175" t="n">
-        <v>10.25641025641018</v>
+        <v>15.15151515151466</v>
       </c>
       <c r="L175" t="n">
         <v>9.470000000000002</v>
@@ -9336,7 +9358,7 @@
         <v>5.510000000000019</v>
       </c>
       <c r="K176" t="n">
-        <v>-2.380952380952527</v>
+        <v>-7.317073170731919</v>
       </c>
       <c r="L176" t="n">
         <v>9.467000000000002</v>
@@ -9387,7 +9409,7 @@
         <v>5.590000000000019</v>
       </c>
       <c r="K177" t="n">
-        <v>7.692307692307482</v>
+        <v>10.20408163265277</v>
       </c>
       <c r="L177" t="n">
         <v>9.472000000000003</v>
@@ -9438,7 +9460,7 @@
         <v>5.670000000000019</v>
       </c>
       <c r="K178" t="n">
-        <v>26.66666666666657</v>
+        <v>37.25490196078397</v>
       </c>
       <c r="L178" t="n">
         <v>9.485000000000003</v>
@@ -9489,7 +9511,7 @@
         <v>5.670000000000019</v>
       </c>
       <c r="K179" t="n">
-        <v>18.51851851851829</v>
+        <v>30.43478260869522</v>
       </c>
       <c r="L179" t="n">
         <v>9.504000000000001</v>
@@ -9540,7 +9562,7 @@
         <v>5.680000000000019</v>
       </c>
       <c r="K180" t="n">
-        <v>27.99999999999981</v>
+        <v>26.08695652173881</v>
       </c>
       <c r="L180" t="n">
         <v>9.517000000000001</v>
@@ -9591,7 +9613,7 @@
         <v>5.680000000000019</v>
       </c>
       <c r="K181" t="n">
-        <v>21.73913043478256</v>
+        <v>41.46341463414613</v>
       </c>
       <c r="L181" t="n">
         <v>9.529</v>
@@ -9642,7 +9664,7 @@
         <v>5.680000000000019</v>
       </c>
       <c r="K182" t="n">
-        <v>29.23076923076898</v>
+        <v>33.333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>9.546000000000001</v>
@@ -9693,7 +9715,7 @@
         <v>5.700000000000019</v>
       </c>
       <c r="K183" t="n">
-        <v>19.35483870967721</v>
+        <v>37.1428571428574</v>
       </c>
       <c r="L183" t="n">
         <v>9.556000000000001</v>
@@ -9744,7 +9766,7 @@
         <v>5.720000000000018</v>
       </c>
       <c r="K184" t="n">
-        <v>21.87499999999973</v>
+        <v>24.13793103448293</v>
       </c>
       <c r="L184" t="n">
         <v>9.571</v>
@@ -9795,7 +9817,7 @@
         <v>5.750000000000018</v>
       </c>
       <c r="K185" t="n">
-        <v>13.84615384615378</v>
+        <v>50.00000000000075</v>
       </c>
       <c r="L185" t="n">
         <v>9.574999999999999</v>
@@ -9846,7 +9868,7 @@
         <v>5.950000000000019</v>
       </c>
       <c r="K186" t="n">
-        <v>-12.94117647058833</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L186" t="n">
         <v>9.567</v>
@@ -9897,7 +9919,7 @@
         <v>6.120000000000019</v>
       </c>
       <c r="K187" t="n">
-        <v>5.882352941176327</v>
+        <v>-15.55555555555564</v>
       </c>
       <c r="L187" t="n">
         <v>9.568000000000001</v>
@@ -9948,7 +9970,7 @@
         <v>6.150000000000018</v>
       </c>
       <c r="K188" t="n">
-        <v>2.857142857142789</v>
+        <v>-20.83333333333332</v>
       </c>
       <c r="L188" t="n">
         <v>9.558000000000002</v>
@@ -9999,7 +10021,7 @@
         <v>6.190000000000017</v>
       </c>
       <c r="K189" t="n">
-        <v>4.854368932038899</v>
+        <v>-25.49019607843127</v>
       </c>
       <c r="L189" t="n">
         <v>9.544</v>
@@ -10050,7 +10072,7 @@
         <v>6.220000000000018</v>
       </c>
       <c r="K190" t="n">
-        <v>-2.970297029703079</v>
+        <v>-29.6296296296297</v>
       </c>
       <c r="L190" t="n">
         <v>9.528000000000002</v>
@@ -10101,7 +10123,7 @@
         <v>6.240000000000018</v>
       </c>
       <c r="K191" t="n">
-        <v>-5.882352941176512</v>
+        <v>-32.14285714285717</v>
       </c>
       <c r="L191" t="n">
         <v>9.510000000000002</v>
@@ -10152,7 +10174,7 @@
         <v>6.340000000000018</v>
       </c>
       <c r="K192" t="n">
-        <v>8.411214953271012</v>
+        <v>-9.375000000000096</v>
       </c>
       <c r="L192" t="n">
         <v>9.502000000000002</v>
@@ -10203,7 +10225,7 @@
         <v>6.380000000000017</v>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
+        <v>-18.18181818181811</v>
       </c>
       <c r="L193" t="n">
         <v>9.492000000000003</v>
@@ -10254,7 +10276,7 @@
         <v>6.400000000000016</v>
       </c>
       <c r="K194" t="n">
-        <v>0.9523809523811039</v>
+        <v>-16.92307692307687</v>
       </c>
       <c r="L194" t="n">
         <v>9.478000000000003</v>
@@ -10305,7 +10327,7 @@
         <v>6.410000000000018</v>
       </c>
       <c r="K195" t="n">
-        <v>-8.163265306122467</v>
+        <v>17.39130434782614</v>
       </c>
       <c r="L195" t="n">
         <v>9.466000000000003</v>
@@ -10356,7 +10378,7 @@
         <v>6.410000000000018</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L196" t="n">
         <v>9.474000000000002</v>
@@ -10407,7 +10429,7 @@
         <v>6.440000000000017</v>
       </c>
       <c r="K197" t="n">
-        <v>-12.9411764705882</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L197" t="n">
         <v>9.462000000000003</v>
@@ -10458,7 +10480,7 @@
         <v>6.440000000000017</v>
       </c>
       <c r="K198" t="n">
-        <v>-24.67532467532468</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L198" t="n">
         <v>9.453000000000003</v>
@@ -10509,7 +10531,7 @@
         <v>6.610000000000017</v>
       </c>
       <c r="K199" t="n">
-        <v>-2.127659574468045</v>
+        <v>38.46153846153867</v>
       </c>
       <c r="L199" t="n">
         <v>9.465000000000003</v>
@@ -10560,7 +10582,7 @@
         <v>6.660000000000018</v>
       </c>
       <c r="K200" t="n">
-        <v>-6.122448979591896</v>
+        <v>28.57142857142839</v>
       </c>
       <c r="L200" t="n">
         <v>9.475000000000003</v>
@@ -10611,7 +10633,7 @@
         <v>6.710000000000017</v>
       </c>
       <c r="K201" t="n">
-        <v>-10.67961165048541</v>
+        <v>-8.108108108107952</v>
       </c>
       <c r="L201" t="n">
         <v>9.482000000000003</v>
@@ -10662,7 +10684,7 @@
         <v>6.760000000000018</v>
       </c>
       <c r="K202" t="n">
-        <v>-14.81481481481485</v>
+        <v>-10.52631578947391</v>
       </c>
       <c r="L202" t="n">
         <v>9.474000000000002</v>
@@ -10713,7 +10735,7 @@
         <v>6.780000000000017</v>
       </c>
       <c r="K203" t="n">
-        <v>-14.81481481481485</v>
+        <v>-10.52631578947391</v>
       </c>
       <c r="L203" t="n">
         <v>9.468000000000002</v>
@@ -10764,7 +10786,7 @@
         <v>6.910000000000018</v>
       </c>
       <c r="K204" t="n">
-        <v>-4.20168067226882</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L204" t="n">
         <v>9.477</v>
@@ -10815,7 +10837,7 @@
         <v>7.060000000000018</v>
       </c>
       <c r="K205" t="n">
-        <v>-12.97709923664121</v>
+        <v>-7.692307692307525</v>
       </c>
       <c r="L205" t="n">
         <v>9.472000000000001</v>
@@ -10866,7 +10888,7 @@
         <v>7.070000000000018</v>
       </c>
       <c r="K206" t="n">
-        <v>3.571428571428656</v>
+        <v>-1.587301587301551</v>
       </c>
       <c r="L206" t="n">
         <v>9.468</v>
@@ -10917,7 +10939,7 @@
         <v>7.080000000000018</v>
       </c>
       <c r="K207" t="n">
-        <v>-14.58333333333322</v>
+        <v>-3.124999999999931</v>
       </c>
       <c r="L207" t="n">
         <v>9.466000000000001</v>
@@ -10968,7 +10990,7 @@
         <v>7.160000000000018</v>
       </c>
       <c r="K208" t="n">
-        <v>-18.81188118811877</v>
+        <v>-49.09090909090895</v>
       </c>
       <c r="L208" t="n">
         <v>9.456000000000001</v>
@@ -11019,7 +11041,7 @@
         <v>7.250000000000018</v>
       </c>
       <c r="K209" t="n">
-        <v>-5.660377358490611</v>
+        <v>-22.03389830508458</v>
       </c>
       <c r="L209" t="n">
         <v>9.438000000000001</v>
@@ -11070,7 +11092,7 @@
         <v>7.250000000000018</v>
       </c>
       <c r="K210" t="n">
-        <v>-2.912621359223241</v>
+        <v>-14.8148148148148</v>
       </c>
       <c r="L210" t="n">
         <v>9.425000000000001</v>
@@ -11121,7 +11143,7 @@
         <v>7.250000000000018</v>
       </c>
       <c r="K211" t="n">
-        <v>-0.9900990099009691</v>
+        <v>-6.122448979591703</v>
       </c>
       <c r="L211" t="n">
         <v>9.417</v>
@@ -11172,7 +11194,7 @@
         <v>7.250000000000018</v>
       </c>
       <c r="K212" t="n">
-        <v>-12.08791208791202</v>
+        <v>-2.127659574468037</v>
       </c>
       <c r="L212" t="n">
         <v>9.414</v>
@@ -11223,7 +11245,7 @@
         <v>7.250000000000018</v>
       </c>
       <c r="K213" t="n">
-        <v>-8.045977011494276</v>
+        <v>-41.17647058823548</v>
       </c>
       <c r="L213" t="n">
         <v>9.413</v>
@@ -11274,7 +11296,7 @@
         <v>7.260000000000018</v>
       </c>
       <c r="K214" t="n">
-        <v>-6.97674418604656</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>9.398</v>
@@ -11325,7 +11347,7 @@
         <v>7.270000000000017</v>
       </c>
       <c r="K215" t="n">
-        <v>-6.976744186046367</v>
+        <v>-9.999999999999822</v>
       </c>
       <c r="L215" t="n">
         <v>9.397</v>
@@ -11376,7 +11398,7 @@
         <v>7.270000000000017</v>
       </c>
       <c r="K216" t="n">
-        <v>-6.976744186046367</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L216" t="n">
         <v>9.395</v>
@@ -11427,7 +11449,7 @@
         <v>7.320000000000018</v>
       </c>
       <c r="K217" t="n">
-        <v>-9.090909090909092</v>
+        <v>12.49999999999972</v>
       </c>
       <c r="L217" t="n">
         <v>9.388999999999999</v>
@@ -11478,7 +11500,7 @@
         <v>7.350000000000017</v>
       </c>
       <c r="K218" t="n">
-        <v>-12.08791208791202</v>
+        <v>-100</v>
       </c>
       <c r="L218" t="n">
         <v>9.388</v>
@@ -11529,7 +11551,7 @@
         <v>7.380000000000017</v>
       </c>
       <c r="K219" t="n">
-        <v>-32.46753246753249</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L219" t="n">
         <v>9.381</v>
@@ -11580,7 +11602,7 @@
         <v>7.380000000000017</v>
       </c>
       <c r="K220" t="n">
-        <v>-27.77777777777772</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L220" t="n">
         <v>9.374000000000001</v>
@@ -11631,7 +11653,7 @@
         <v>7.380000000000017</v>
       </c>
       <c r="K221" t="n">
-        <v>-22.38805970149259</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L221" t="n">
         <v>9.367000000000001</v>
@@ -11682,7 +11704,7 @@
         <v>7.440000000000017</v>
       </c>
       <c r="K222" t="n">
-        <v>-5.882352941176348</v>
+        <v>-5.263157894736744</v>
       </c>
       <c r="L222" t="n">
         <v>9.366000000000003</v>
@@ -11733,7 +11755,7 @@
         <v>7.510000000000018</v>
       </c>
       <c r="K223" t="n">
-        <v>6.849315068493245</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L223" t="n">
         <v>9.372000000000003</v>
@@ -11784,7 +11806,7 @@
         <v>7.600000000000017</v>
       </c>
       <c r="K224" t="n">
-        <v>-24.6376811594203</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L224" t="n">
         <v>9.370000000000001</v>
@@ -11835,7 +11857,7 @@
         <v>7.680000000000017</v>
       </c>
       <c r="K225" t="n">
-        <v>9.677419354838802</v>
+        <v>17.07317073170738</v>
       </c>
       <c r="L225" t="n">
         <v>9.377000000000002</v>
@@ -11886,7 +11908,7 @@
         <v>7.740000000000018</v>
       </c>
       <c r="K226" t="n">
-        <v>-1.492537313432804</v>
+        <v>14.28571428571441</v>
       </c>
       <c r="L226" t="n">
         <v>9.378000000000004</v>
@@ -11937,7 +11959,7 @@
         <v>7.760000000000018</v>
       </c>
       <c r="K227" t="n">
-        <v>2.941176470588174</v>
+        <v>26.82926829268278</v>
       </c>
       <c r="L227" t="n">
         <v>9.386000000000003</v>
@@ -11988,7 +12010,7 @@
         <v>7.780000000000017</v>
       </c>
       <c r="K228" t="n">
-        <v>12.90322580645164</v>
+        <v>15.00000000000011</v>
       </c>
       <c r="L228" t="n">
         <v>9.395000000000003</v>
@@ -12039,7 +12061,7 @@
         <v>7.810000000000016</v>
       </c>
       <c r="K229" t="n">
-        <v>3.571428571428503</v>
+        <v>20.93023255813952</v>
       </c>
       <c r="L229" t="n">
         <v>9.404000000000002</v>
@@ -12090,7 +12112,7 @@
         <v>7.810000000000016</v>
       </c>
       <c r="K230" t="n">
-        <v>3.571428571428503</v>
+        <v>20.93023255813952</v>
       </c>
       <c r="L230" t="n">
         <v>9.413000000000002</v>
@@ -12141,7 +12163,7 @@
         <v>7.890000000000017</v>
       </c>
       <c r="K231" t="n">
-        <v>-9.375000000000096</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L231" t="n">
         <v>9.414000000000001</v>
@@ -12192,7 +12214,7 @@
         <v>7.960000000000017</v>
       </c>
       <c r="K232" t="n">
-        <v>1.408450704225324</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L232" t="n">
         <v>9.416</v>
@@ -12243,7 +12265,7 @@
         <v>8.020000000000017</v>
       </c>
       <c r="K233" t="n">
-        <v>-6.49350649350659</v>
+        <v>-4.761904761905084</v>
       </c>
       <c r="L233" t="n">
         <v>9.405000000000001</v>
@@ -12294,7 +12316,7 @@
         <v>8.030000000000017</v>
       </c>
       <c r="K234" t="n">
-        <v>-6.49350649350659</v>
+        <v>-31.42857142857181</v>
       </c>
       <c r="L234" t="n">
         <v>9.402000000000001</v>
@@ -12345,7 +12367,7 @@
         <v>8.040000000000017</v>
       </c>
       <c r="K235" t="n">
-        <v>-3.896103896104046</v>
+        <v>-13.33333333333369</v>
       </c>
       <c r="L235" t="n">
         <v>9.392000000000001</v>
@@ -12396,7 +12418,7 @@
         <v>8.100000000000017</v>
       </c>
       <c r="K236" t="n">
-        <v>3.614457831325224</v>
+        <v>0</v>
       </c>
       <c r="L236" t="n">
         <v>9.394000000000002</v>
@@ -12447,7 +12469,7 @@
         <v>8.160000000000018</v>
       </c>
       <c r="K237" t="n">
-        <v>2.38095238095233</v>
+        <v>-10.52631578947391</v>
       </c>
       <c r="L237" t="n">
         <v>9.388000000000002</v>
@@ -12498,7 +12520,7 @@
         <v>8.220000000000018</v>
       </c>
       <c r="K238" t="n">
-        <v>12.64367816091946</v>
+        <v>-2.439024390243839</v>
       </c>
       <c r="L238" t="n">
         <v>9.390000000000001</v>
@@ -12549,7 +12571,7 @@
         <v>8.280000000000019</v>
       </c>
       <c r="K239" t="n">
-        <v>2.222222222222169</v>
+        <v>-14.89361702127658</v>
       </c>
       <c r="L239" t="n">
         <v>9.383000000000001</v>
@@ -12600,7 +12622,7 @@
         <v>8.340000000000019</v>
       </c>
       <c r="K240" t="n">
-        <v>8.333333333333318</v>
+        <v>15.55555555555552</v>
       </c>
       <c r="L240" t="n">
         <v>9.382000000000001</v>
@@ -12651,7 +12673,7 @@
         <v>8.40000000000002</v>
       </c>
       <c r="K241" t="n">
-        <v>1.960784313725442</v>
+        <v>-13.63636363636365</v>
       </c>
       <c r="L241" t="n">
         <v>9.383000000000003</v>
@@ -12702,7 +12724,7 @@
         <v>8.46000000000002</v>
       </c>
       <c r="K242" t="n">
-        <v>1.960784313725442</v>
+        <v>13.63636363636365</v>
       </c>
       <c r="L242" t="n">
         <v>9.383000000000003</v>
@@ -12753,7 +12775,7 @@
         <v>8.46000000000002</v>
       </c>
       <c r="K243" t="n">
-        <v>-5.263157894736901</v>
+        <v>16.2790697674418</v>
       </c>
       <c r="L243" t="n">
         <v>9.389000000000003</v>
@@ -12804,7 +12826,7 @@
         <v>8.47000000000002</v>
       </c>
       <c r="K244" t="n">
-        <v>3.448275862068881</v>
+        <v>11.62790697674426</v>
       </c>
       <c r="L244" t="n">
         <v>9.395000000000003</v>
@@ -12855,7 +12877,7 @@
         <v>8.47000000000002</v>
       </c>
       <c r="K245" t="n">
-        <v>-6.329113924050701</v>
+        <v>-2.702702702702625</v>
       </c>
       <c r="L245" t="n">
         <v>9.400000000000002</v>
@@ -12906,7 +12928,7 @@
         <v>8.48000000000002</v>
       </c>
       <c r="K246" t="n">
-        <v>2.702702702702638</v>
+        <v>18.75000000000003</v>
       </c>
       <c r="L246" t="n">
         <v>9.400000000000002</v>
@@ -12957,7 +12979,7 @@
         <v>8.49000000000002</v>
       </c>
       <c r="K247" t="n">
-        <v>-1.369863013698597</v>
+        <v>-3.703703703703606</v>
       </c>
       <c r="L247" t="n">
         <v>9.405000000000003</v>
@@ -13008,7 +13030,7 @@
         <v>8.54000000000002</v>
       </c>
       <c r="K248" t="n">
-        <v>-5.26315789473694</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>9.399000000000003</v>
@@ -13059,7 +13081,7 @@
         <v>8.56000000000002</v>
       </c>
       <c r="K249" t="n">
-        <v>-11.99999999999993</v>
+        <v>-36.3636363636363</v>
       </c>
       <c r="L249" t="n">
         <v>9.397000000000002</v>
@@ -13110,7 +13132,7 @@
         <v>8.57000000000002</v>
       </c>
       <c r="K250" t="n">
-        <v>-10.52631578947365</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L250" t="n">
         <v>9.390000000000002</v>
@@ -13161,7 +13183,7 @@
         <v>8.58000000000002</v>
       </c>
       <c r="K251" t="n">
-        <v>-1.449275362318803</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L251" t="n">
         <v>9.388000000000002</v>
@@ -13263,7 +13285,7 @@
         <v>8.66000000000002</v>
       </c>
       <c r="K253" t="n">
-        <v>9.375000000000043</v>
+        <v>5.263157894736744</v>
       </c>
       <c r="L253" t="n">
         <v>9.388000000000002</v>
@@ -13314,7 +13336,7 @@
         <v>8.73000000000002</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="L254" t="n">
         <v>9.382000000000001</v>
@@ -13365,7 +13387,7 @@
         <v>8.80000000000002</v>
       </c>
       <c r="K255" t="n">
-        <v>7.894736842105293</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>9.383000000000003</v>
@@ -13416,7 +13438,7 @@
         <v>8.850000000000021</v>
       </c>
       <c r="K256" t="n">
-        <v>-6.66666666666673</v>
+        <v>-11.11111111111133</v>
       </c>
       <c r="L256" t="n">
         <v>9.378000000000004</v>
@@ -13518,7 +13540,7 @@
         <v>8.860000000000021</v>
       </c>
       <c r="K258" t="n">
-        <v>-9.375000000000043</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L258" t="n">
         <v>9.373000000000003</v>
@@ -13569,7 +13591,7 @@
         <v>8.860000000000021</v>
       </c>
       <c r="K259" t="n">
-        <v>0</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L259" t="n">
         <v>9.375000000000004</v>
@@ -13620,7 +13642,7 @@
         <v>8.870000000000021</v>
       </c>
       <c r="K260" t="n">
-        <v>-9.433962264151058</v>
+        <v>10.34482758620664</v>
       </c>
       <c r="L260" t="n">
         <v>9.377000000000004</v>
@@ -13671,7 +13693,7 @@
         <v>8.88000000000002</v>
       </c>
       <c r="K261" t="n">
-        <v>0</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L261" t="n">
         <v>9.379000000000003</v>
@@ -13773,7 +13795,7 @@
         <v>8.950000000000021</v>
       </c>
       <c r="K263" t="n">
-        <v>2.040816326530568</v>
+        <v>36.3636363636363</v>
       </c>
       <c r="L263" t="n">
         <v>9.380000000000003</v>
@@ -13824,7 +13846,7 @@
         <v>8.980000000000022</v>
       </c>
       <c r="K264" t="n">
-        <v>9.80392156862756</v>
+        <v>22.22222222222255</v>
       </c>
       <c r="L264" t="n">
         <v>9.391000000000002</v>
@@ -13875,7 +13897,7 @@
         <v>8.980000000000022</v>
       </c>
       <c r="K265" t="n">
-        <v>9.80392156862756</v>
+        <v>69.23076923077008</v>
       </c>
       <c r="L265" t="n">
         <v>9.395000000000003</v>
@@ -13926,7 +13948,7 @@
         <v>8.990000000000022</v>
       </c>
       <c r="K266" t="n">
-        <v>9.80392156862756</v>
+        <v>84.61538461538504</v>
       </c>
       <c r="L266" t="n">
         <v>9.405000000000003</v>
@@ -13977,7 +13999,7 @@
         <v>9.100000000000021</v>
       </c>
       <c r="K267" t="n">
-        <v>27.86885245901632</v>
+        <v>91.66666666666686</v>
       </c>
       <c r="L267" t="n">
         <v>9.427000000000003</v>
@@ -14028,7 +14050,7 @@
         <v>9.110000000000021</v>
       </c>
       <c r="K268" t="n">
-        <v>36.84210526315803</v>
+        <v>84.00000000000034</v>
       </c>
       <c r="L268" t="n">
         <v>9.448000000000004</v>
@@ -14079,7 +14101,7 @@
         <v>9.13000000000002</v>
       </c>
       <c r="K269" t="n">
-        <v>36.84210526315803</v>
+        <v>69.23076923076987</v>
       </c>
       <c r="L269" t="n">
         <v>9.467000000000002</v>
@@ -14130,7 +14152,7 @@
         <v>9.190000000000019</v>
       </c>
       <c r="K270" t="n">
-        <v>41.93548387096776</v>
+        <v>80.6451612903229</v>
       </c>
       <c r="L270" t="n">
         <v>9.491000000000003</v>
@@ -14181,7 +14203,7 @@
         <v>9.190000000000019</v>
       </c>
       <c r="K271" t="n">
-        <v>44.26229508196718</v>
+        <v>76.00000000000034</v>
       </c>
       <c r="L271" t="n">
         <v>9.516000000000002</v>
@@ -14232,7 +14254,7 @@
         <v>9.200000000000019</v>
       </c>
       <c r="K272" t="n">
-        <v>33.33333333333333</v>
+        <v>68.00000000000045</v>
       </c>
       <c r="L272" t="n">
         <v>9.534000000000002</v>
@@ -14283,7 +14305,7 @@
         <v>9.200000000000019</v>
       </c>
       <c r="K273" t="n">
-        <v>33.33333333333333</v>
+        <v>63.63636363636394</v>
       </c>
       <c r="L273" t="n">
         <v>9.551000000000002</v>
@@ -14334,7 +14356,7 @@
         <v>9.200000000000019</v>
       </c>
       <c r="K274" t="n">
-        <v>53.19148936170226</v>
+        <v>63.63636363636394</v>
       </c>
       <c r="L274" t="n">
         <v>9.565000000000001</v>
@@ -14385,7 +14407,7 @@
         <v>9.250000000000018</v>
       </c>
       <c r="K275" t="n">
-        <v>28.88888888888922</v>
+        <v>30.76923076923124</v>
       </c>
       <c r="L275" t="n">
         <v>9.574000000000002</v>
@@ -14436,7 +14458,7 @@
         <v>9.260000000000019</v>
       </c>
       <c r="K276" t="n">
-        <v>41.46341463414649</v>
+        <v>-25.00000000000083</v>
       </c>
       <c r="L276" t="n">
         <v>9.581</v>
@@ -14487,7 +14509,7 @@
         <v>9.270000000000021</v>
       </c>
       <c r="K277" t="n">
-        <v>46.34146341463444</v>
+        <v>-12.49999999999972</v>
       </c>
       <c r="L277" t="n">
         <v>9.577999999999999</v>
@@ -14538,7 +14560,7 @@
         <v>9.31000000000002</v>
       </c>
       <c r="K278" t="n">
-        <v>51.11111111111128</v>
+        <v>22.22222222222178</v>
       </c>
       <c r="L278" t="n">
         <v>9.580000000000002</v>
@@ -14589,7 +14611,7 @@
         <v>9.32000000000002</v>
       </c>
       <c r="K279" t="n">
-        <v>52.17391304347841</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L279" t="n">
         <v>9.585000000000001</v>
@@ -14640,7 +14662,7 @@
         <v>9.33000000000002</v>
       </c>
       <c r="K280" t="n">
-        <v>52.17391304347841</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>9.585000000000001</v>
@@ -14691,7 +14713,7 @@
         <v>9.33000000000002</v>
       </c>
       <c r="K281" t="n">
-        <v>55.55555555555565</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L281" t="n">
         <v>9.585000000000001</v>
@@ -14742,7 +14764,7 @@
         <v>9.33000000000002</v>
       </c>
       <c r="K282" t="n">
-        <v>48.71794871794874</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L282" t="n">
         <v>9.586000000000002</v>
@@ -14793,7 +14815,7 @@
         <v>9.340000000000019</v>
       </c>
       <c r="K283" t="n">
-        <v>48.71794871794874</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L283" t="n">
         <v>9.588000000000003</v>
@@ -14844,7 +14866,7 @@
         <v>9.340000000000019</v>
       </c>
       <c r="K284" t="n">
-        <v>44.44444444444428</v>
+        <v>77.7777777777747</v>
       </c>
       <c r="L284" t="n">
         <v>9.590000000000003</v>
@@ -14895,7 +14917,7 @@
         <v>9.340000000000019</v>
       </c>
       <c r="K285" t="n">
-        <v>44.44444444444428</v>
+        <v>100</v>
       </c>
       <c r="L285" t="n">
         <v>9.597000000000005</v>
@@ -14946,7 +14968,7 @@
         <v>9.340000000000019</v>
       </c>
       <c r="K286" t="n">
-        <v>42.85714285714271</v>
+        <v>100</v>
       </c>
       <c r="L286" t="n">
         <v>9.605000000000004</v>
@@ -14997,7 +15019,7 @@
         <v>9.340000000000019</v>
       </c>
       <c r="K287" t="n">
-        <v>16.66666666666642</v>
+        <v>100</v>
       </c>
       <c r="L287" t="n">
         <v>9.612000000000005</v>
@@ -15048,7 +15070,7 @@
         <v>9.340000000000019</v>
       </c>
       <c r="K288" t="n">
-        <v>21.73913043478227</v>
+        <v>100</v>
       </c>
       <c r="L288" t="n">
         <v>9.615000000000006</v>
@@ -15099,7 +15121,7 @@
         <v>9.370000000000021</v>
       </c>
       <c r="K289" t="n">
-        <v>41.66666666666648</v>
+        <v>100</v>
       </c>
       <c r="L289" t="n">
         <v>9.620000000000006</v>
@@ -15150,7 +15172,7 @@
         <v>9.370000000000021</v>
       </c>
       <c r="K290" t="n">
-        <v>22.22222222222255</v>
+        <v>100</v>
       </c>
       <c r="L290" t="n">
         <v>9.624000000000006</v>
@@ -15201,7 +15223,7 @@
         <v>9.370000000000021</v>
       </c>
       <c r="K291" t="n">
-        <v>22.22222222222255</v>
+        <v>100</v>
       </c>
       <c r="L291" t="n">
         <v>9.628000000000007</v>
@@ -15252,7 +15274,7 @@
         <v>9.38000000000002</v>
       </c>
       <c r="K292" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L292" t="n">
         <v>9.633000000000006</v>
@@ -15303,7 +15325,7 @@
         <v>9.39000000000002</v>
       </c>
       <c r="K293" t="n">
-        <v>26.31578947368441</v>
+        <v>60.00000000000142</v>
       </c>
       <c r="L293" t="n">
         <v>9.636000000000006</v>
@@ -15354,7 +15376,7 @@
         <v>9.40000000000002</v>
       </c>
       <c r="K294" t="n">
-        <v>30.00000000000009</v>
+        <v>66.66666666666765</v>
       </c>
       <c r="L294" t="n">
         <v>9.640000000000006</v>
@@ -15405,7 +15427,7 @@
         <v>9.41000000000002</v>
       </c>
       <c r="K295" t="n">
-        <v>62.49999999999903</v>
+        <v>42.85714285714431</v>
       </c>
       <c r="L295" t="n">
         <v>9.643000000000006</v>
@@ -15456,7 +15478,7 @@
         <v>9.420000000000019</v>
       </c>
       <c r="K296" t="n">
-        <v>62.50000000000083</v>
+        <v>25.00000000000167</v>
       </c>
       <c r="L296" t="n">
         <v>9.645000000000007</v>
@@ -15507,7 +15529,7 @@
         <v>9.420000000000019</v>
       </c>
       <c r="K297" t="n">
-        <v>60.00000000000048</v>
+        <v>25.00000000000167</v>
       </c>
       <c r="L297" t="n">
         <v>9.647000000000006</v>
@@ -15558,7 +15580,7 @@
         <v>9.430000000000019</v>
       </c>
       <c r="K298" t="n">
-        <v>50.00000000000075</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>9.650000000000006</v>
@@ -15609,7 +15631,7 @@
         <v>9.54000000000002</v>
       </c>
       <c r="K299" t="n">
-        <v>-27.27272727272742</v>
+        <v>-64.70588235294191</v>
       </c>
       <c r="L299" t="n">
         <v>9.639000000000005</v>
@@ -15660,7 +15682,7 @@
         <v>9.660000000000021</v>
       </c>
       <c r="K300" t="n">
-        <v>15.15151515151528</v>
+        <v>3.448275862068881</v>
       </c>
       <c r="L300" t="n">
         <v>9.640000000000004</v>
@@ -15711,7 +15733,7 @@
         <v>9.660000000000021</v>
       </c>
       <c r="K301" t="n">
-        <v>15.15151515151528</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>9.641000000000002</v>
@@ -15762,7 +15784,7 @@
         <v>9.670000000000021</v>
       </c>
       <c r="K302" t="n">
-        <v>11.76470588235316</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>9.640000000000004</v>
@@ -15813,7 +15835,7 @@
         <v>9.670000000000021</v>
       </c>
       <c r="K303" t="n">
-        <v>9.090909090909385</v>
+        <v>-3.703703703703606</v>
       </c>
       <c r="L303" t="n">
         <v>9.640000000000004</v>
@@ -15864,7 +15886,7 @@
         <v>9.670000000000021</v>
       </c>
       <c r="K304" t="n">
-        <v>9.090909090909385</v>
+        <v>0</v>
       </c>
       <c r="L304" t="n">
         <v>9.639000000000005</v>
@@ -15915,7 +15937,7 @@
         <v>9.680000000000021</v>
       </c>
       <c r="K305" t="n">
-        <v>5.88235294117684</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>9.638000000000003</v>
@@ -15966,7 +15988,7 @@
         <v>9.680000000000021</v>
       </c>
       <c r="K306" t="n">
-        <v>5.88235294117684</v>
+        <v>0</v>
       </c>
       <c r="L306" t="n">
         <v>9.638000000000003</v>
@@ -16017,7 +16039,7 @@
         <v>9.680000000000021</v>
       </c>
       <c r="K307" t="n">
-        <v>5.88235294117684</v>
+        <v>-3.999999999999886</v>
       </c>
       <c r="L307" t="n">
         <v>9.638000000000003</v>
@@ -16068,7 +16090,7 @@
         <v>9.680000000000021</v>
       </c>
       <c r="K308" t="n">
-        <v>5.88235294117684</v>
+        <v>71.42857142857216</v>
       </c>
       <c r="L308" t="n">
         <v>9.637000000000004</v>
@@ -16119,7 +16141,7 @@
         <v>9.680000000000021</v>
       </c>
       <c r="K309" t="n">
-        <v>-3.22580645161283</v>
+        <v>-100</v>
       </c>
       <c r="L309" t="n">
         <v>9.647000000000002</v>
@@ -16170,7 +16192,7 @@
         <v>9.680000000000021</v>
       </c>
       <c r="K310" t="n">
-        <v>-3.22580645161283</v>
+        <v>-100</v>
       </c>
       <c r="L310" t="n">
         <v>9.645000000000003</v>
@@ -16221,7 +16243,7 @@
         <v>9.680000000000021</v>
       </c>
       <c r="K311" t="n">
-        <v>-3.22580645161283</v>
+        <v>-100</v>
       </c>
       <c r="L311" t="n">
         <v>9.643000000000004</v>
@@ -16272,7 +16294,7 @@
         <v>9.690000000000021</v>
       </c>
       <c r="K312" t="n">
-        <v>-3.22580645161283</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>9.643000000000004</v>
@@ -16323,7 +16345,7 @@
         <v>9.720000000000022</v>
       </c>
       <c r="K313" t="n">
-        <v>-9.090909090909385</v>
+        <v>-60.00000000000142</v>
       </c>
       <c r="L313" t="n">
         <v>9.640000000000004</v>
@@ -16374,7 +16396,7 @@
         <v>9.750000000000023</v>
       </c>
       <c r="K314" t="n">
-        <v>-2.85714285714277</v>
+        <v>14.28571428571356</v>
       </c>
       <c r="L314" t="n">
         <v>9.640000000000004</v>
@@ -16425,7 +16447,7 @@
         <v>9.760000000000023</v>
       </c>
       <c r="K315" t="n">
-        <v>-2.85714285714277</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>9.640000000000004</v>
@@ -16476,7 +16498,7 @@
         <v>9.810000000000024</v>
       </c>
       <c r="K316" t="n">
-        <v>-12.82051282051287</v>
+        <v>-38.46153846153825</v>
       </c>
       <c r="L316" t="n">
         <v>9.635000000000003</v>
@@ -16578,7 +16600,7 @@
         <v>9.910000000000025</v>
       </c>
       <c r="K318" t="n">
-        <v>-12.49999999999995</v>
+        <v>-21.73913043478254</v>
       </c>
       <c r="L318" t="n">
         <v>9.630000000000004</v>
@@ -16629,7 +16651,7 @@
         <v>9.910000000000025</v>
       </c>
       <c r="K319" t="n">
-        <v>13.51351351351354</v>
+        <v>-21.73913043478254</v>
       </c>
       <c r="L319" t="n">
         <v>9.625000000000004</v>
@@ -16680,7 +16702,7 @@
         <v>9.910000000000025</v>
       </c>
       <c r="K320" t="n">
-        <v>-27.99999999999972</v>
+        <v>-21.73913043478254</v>
       </c>
       <c r="L320" t="n">
         <v>9.620000000000005</v>
@@ -16731,7 +16753,7 @@
         <v>9.920000000000025</v>
       </c>
       <c r="K321" t="n">
-        <v>-30.7692307692304</v>
+        <v>-30.43478260869525</v>
       </c>
       <c r="L321" t="n">
         <v>9.614000000000004</v>
@@ -16782,7 +16804,7 @@
         <v>9.980000000000025</v>
       </c>
       <c r="K322" t="n">
-        <v>-3.225806451612792</v>
+        <v>7.692307692308114</v>
       </c>
       <c r="L322" t="n">
         <v>9.613000000000003</v>
@@ -16833,7 +16855,7 @@
         <v>9.980000000000025</v>
       </c>
       <c r="K323" t="n">
-        <v>-3.225806451612792</v>
+        <v>-4.347826086956387</v>
       </c>
       <c r="L323" t="n">
         <v>9.615000000000004</v>
@@ -16884,7 +16906,7 @@
         <v>9.980000000000025</v>
       </c>
       <c r="K324" t="n">
-        <v>-3.225806451612792</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
         <v>9.614000000000003</v>
@@ -16935,7 +16957,7 @@
         <v>10.05000000000003</v>
       </c>
       <c r="K325" t="n">
-        <v>-18.91891891891876</v>
+        <v>-8.333333333333087</v>
       </c>
       <c r="L325" t="n">
         <v>9.607000000000003</v>
@@ -16986,7 +17008,7 @@
         <v>10.11000000000003</v>
       </c>
       <c r="K326" t="n">
-        <v>-2.325581395348761</v>
+        <v>-3.999999999999886</v>
       </c>
       <c r="L326" t="n">
         <v>9.611000000000002</v>
@@ -17037,7 +17059,7 @@
         <v>10.14000000000003</v>
       </c>
       <c r="K327" t="n">
-        <v>-8.695652173913128</v>
+        <v>4.347826086956387</v>
       </c>
       <c r="L327" t="n">
         <v>9.607000000000003</v>
@@ -17088,7 +17110,7 @@
         <v>10.17000000000003</v>
       </c>
       <c r="K328" t="n">
-        <v>-2.040816326530538</v>
+        <v>15.38461538461554</v>
       </c>
       <c r="L328" t="n">
         <v>9.611000000000001</v>
@@ -17139,7 +17161,7 @@
         <v>10.21000000000003</v>
       </c>
       <c r="K329" t="n">
-        <v>-9.43396226415093</v>
+        <v>0</v>
       </c>
       <c r="L329" t="n">
         <v>9.611000000000001</v>
@@ -17190,7 +17212,7 @@
         <v>10.22000000000003</v>
       </c>
       <c r="K330" t="n">
-        <v>-7.407407407407468</v>
+        <v>6.666666666666429</v>
       </c>
       <c r="L330" t="n">
         <v>9.612</v>
@@ -17241,7 +17263,7 @@
         <v>10.23000000000003</v>
       </c>
       <c r="K331" t="n">
-        <v>-5.454545454545584</v>
+        <v>-12.00000000000028</v>
       </c>
       <c r="L331" t="n">
         <v>9.615</v>
@@ -17292,7 +17314,7 @@
         <v>10.25000000000003</v>
       </c>
       <c r="K332" t="n">
-        <v>-3.571428571428435</v>
+        <v>-3.703703703703558</v>
       </c>
       <c r="L332" t="n">
         <v>9.614000000000001</v>
@@ -17343,7 +17365,7 @@
         <v>10.25000000000003</v>
       </c>
       <c r="K333" t="n">
-        <v>1.886792452830454</v>
+        <v>-3.703703703703558</v>
       </c>
       <c r="L333" t="n">
         <v>9.613</v>
@@ -17394,7 +17416,7 @@
         <v>10.25000000000003</v>
       </c>
       <c r="K334" t="n">
-        <v>-3.999999999999858</v>
+        <v>29.99999999999956</v>
       </c>
       <c r="L334" t="n">
         <v>9.611999999999998</v>
@@ -17445,7 +17467,7 @@
         <v>10.25000000000003</v>
       </c>
       <c r="K335" t="n">
-        <v>-2.040816326530538</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>9.617999999999999</v>
@@ -17496,7 +17518,7 @@
         <v>10.27000000000003</v>
       </c>
       <c r="K336" t="n">
-        <v>4.347826086956354</v>
+        <v>7.692307692307272</v>
       </c>
       <c r="L336" t="n">
         <v>9.615999999999998</v>
@@ -17547,7 +17569,7 @@
         <v>10.28000000000003</v>
       </c>
       <c r="K337" t="n">
-        <v>-9.523809523809584</v>
+        <v>-27.27272727272756</v>
       </c>
       <c r="L337" t="n">
         <v>9.615999999999998</v>
@@ -17598,7 +17620,7 @@
         <v>10.29000000000003</v>
       </c>
       <c r="K338" t="n">
-        <v>5.263157894736645</v>
+        <v>24.99999999999889</v>
       </c>
       <c r="L338" t="n">
         <v>9.613999999999999</v>
@@ -17649,7 +17671,7 @@
         <v>10.31000000000003</v>
       </c>
       <c r="K339" t="n">
-        <v>10.00000000000004</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L339" t="n">
         <v>9.617999999999999</v>
@@ -17700,7 +17722,7 @@
         <v>10.34000000000003</v>
       </c>
       <c r="K340" t="n">
-        <v>2.325581395348741</v>
+        <v>-9.090909090908504</v>
       </c>
       <c r="L340" t="n">
         <v>9.617999999999999</v>
@@ -17751,7 +17773,7 @@
         <v>10.40000000000003</v>
       </c>
       <c r="K341" t="n">
-        <v>-8.333333333333364</v>
+        <v>-59.99999999999953</v>
       </c>
       <c r="L341" t="n">
         <v>9.610999999999997</v>
@@ -17802,7 +17824,7 @@
         <v>10.45000000000003</v>
       </c>
       <c r="K342" t="n">
-        <v>-10.63829787234036</v>
+        <v>-20</v>
       </c>
       <c r="L342" t="n">
         <v>9.606999999999998</v>
@@ -17853,7 +17875,7 @@
         <v>10.45000000000003</v>
       </c>
       <c r="K343" t="n">
-        <v>-10.63829787234036</v>
+        <v>-20</v>
       </c>
       <c r="L343" t="n">
         <v>9.602999999999998</v>
@@ -17904,7 +17926,7 @@
         <v>10.50000000000004</v>
       </c>
       <c r="K344" t="n">
-        <v>-19.23076923076913</v>
+        <v>-35.99999999999989</v>
       </c>
       <c r="L344" t="n">
         <v>9.593999999999999</v>
@@ -17955,7 +17977,7 @@
         <v>10.54000000000003</v>
       </c>
       <c r="K345" t="n">
-        <v>-14.28571428571408</v>
+        <v>-40.74074074074006</v>
       </c>
       <c r="L345" t="n">
         <v>9.581</v>
@@ -18006,7 +18028,7 @@
         <v>10.58000000000003</v>
       </c>
       <c r="K346" t="n">
-        <v>-19.1489361702128</v>
+        <v>-20</v>
       </c>
       <c r="L346" t="n">
         <v>9.574</v>
@@ -18057,7 +18079,7 @@
         <v>10.63000000000003</v>
       </c>
       <c r="K347" t="n">
-        <v>-2.040816326530538</v>
+        <v>-5.882352941176286</v>
       </c>
       <c r="L347" t="n">
         <v>9.573</v>
@@ -18108,7 +18130,7 @@
         <v>10.78000000000003</v>
       </c>
       <c r="K348" t="n">
-        <v>-31.14754098360643</v>
+        <v>-40.42553191489368</v>
       </c>
       <c r="L348" t="n">
         <v>9.556000000000001</v>
@@ -18159,7 +18181,7 @@
         <v>10.83000000000004</v>
       </c>
       <c r="K349" t="n">
-        <v>-16.12903225806429</v>
+        <v>-22.44897959183653</v>
       </c>
       <c r="L349" t="n">
         <v>9.542</v>
@@ -18210,7 +18232,7 @@
         <v>10.84000000000004</v>
       </c>
       <c r="K350" t="n">
-        <v>-16.12903225806429</v>
+        <v>-9.09090909090887</v>
       </c>
       <c r="L350" t="n">
         <v>9.532</v>
@@ -18261,7 +18283,7 @@
         <v>10.84000000000004</v>
       </c>
       <c r="K351" t="n">
-        <v>-18.03278688524562</v>
+        <v>-23.07692307692301</v>
       </c>
       <c r="L351" t="n">
         <v>9.528</v>
@@ -18363,7 +18385,7 @@
         <v>10.85000000000004</v>
       </c>
       <c r="K353" t="n">
-        <v>-20</v>
+        <v>-8.571428571428399</v>
       </c>
       <c r="L353" t="n">
         <v>9.512</v>
@@ -18414,7 +18436,7 @@
         <v>10.87000000000003</v>
       </c>
       <c r="K354" t="n">
-        <v>-22.58064516129025</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L354" t="n">
         <v>9.507</v>
@@ -18465,7 +18487,7 @@
         <v>10.94000000000004</v>
       </c>
       <c r="K355" t="n">
-        <v>-30.43478260869556</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L355" t="n">
         <v>9.498999999999999</v>
@@ -18516,7 +18538,7 @@
         <v>11.01000000000004</v>
       </c>
       <c r="K356" t="n">
-        <v>-16.21621621621603</v>
+        <v>-26.31578947368406</v>
       </c>
       <c r="L356" t="n">
         <v>9.494</v>
@@ -18567,7 +18589,7 @@
         <v>11.06000000000004</v>
       </c>
       <c r="K357" t="n">
-        <v>-20.51282051282041</v>
+        <v>0</v>
       </c>
       <c r="L357" t="n">
         <v>9.478999999999999</v>
@@ -18618,7 +18640,7 @@
         <v>11.07000000000004</v>
       </c>
       <c r="K358" t="n">
-        <v>-20.51282051282041</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L358" t="n">
         <v>9.48</v>
@@ -18669,7 +18691,7 @@
         <v>11.11000000000004</v>
       </c>
       <c r="K359" t="n">
-        <v>-17.49999999999998</v>
+        <v>-3.703703703703606</v>
       </c>
       <c r="L359" t="n">
         <v>9.48</v>
@@ -18720,7 +18742,7 @@
         <v>11.14000000000004</v>
       </c>
       <c r="K360" t="n">
-        <v>-17.49999999999979</v>
+        <v>-13.33333333333302</v>
       </c>
       <c r="L360" t="n">
         <v>9.475999999999999</v>
@@ -18771,7 +18793,7 @@
         <v>11.18000000000004</v>
       </c>
       <c r="K361" t="n">
-        <v>-5.128205128205011</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L361" t="n">
         <v>9.475999999999999</v>
@@ -18822,7 +18844,7 @@
         <v>11.18000000000004</v>
       </c>
       <c r="K362" t="n">
-        <v>-12.32876712328764</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L362" t="n">
         <v>9.474999999999998</v>
@@ -18873,7 +18895,7 @@
         <v>11.23000000000004</v>
       </c>
       <c r="K363" t="n">
-        <v>-5.128205128205011</v>
+        <v>16.66666666666675</v>
       </c>
       <c r="L363" t="n">
         <v>9.478999999999997</v>
@@ -18924,7 +18946,7 @@
         <v>11.25000000000004</v>
       </c>
       <c r="K364" t="n">
-        <v>4.000000000000151</v>
+        <v>48.38709677419358</v>
       </c>
       <c r="L364" t="n">
         <v>9.486999999999998</v>
@@ -18975,7 +18997,7 @@
         <v>11.25000000000004</v>
       </c>
       <c r="K365" t="n">
-        <v>9.859154929577493</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L365" t="n">
         <v>9.501999999999999</v>
@@ -19026,7 +19048,7 @@
         <v>11.25000000000004</v>
       </c>
       <c r="K366" t="n">
-        <v>4.477611940298665</v>
+        <v>68.42105263157954</v>
       </c>
       <c r="L366" t="n">
         <v>9.510000000000002</v>
@@ -19077,7 +19099,7 @@
         <v>11.25000000000004</v>
       </c>
       <c r="K367" t="n">
-        <v>-3.22580645161283</v>
+        <v>66.66666666666733</v>
       </c>
       <c r="L367" t="n">
         <v>9.523000000000001</v>
@@ -19128,7 +19150,7 @@
         <v>11.25000000000004</v>
       </c>
       <c r="K368" t="n">
-        <v>27.65957446808524</v>
+        <v>57.14285714285769</v>
       </c>
       <c r="L368" t="n">
         <v>9.535</v>
@@ -19179,7 +19201,7 @@
         <v>11.26000000000004</v>
       </c>
       <c r="K369" t="n">
-        <v>16.27906976744194</v>
+        <v>83.33333333333358</v>
       </c>
       <c r="L369" t="n">
         <v>9.542000000000002</v>
@@ -19230,7 +19252,7 @@
         <v>11.27000000000004</v>
       </c>
       <c r="K370" t="n">
-        <v>11.62790697674436</v>
+        <v>55.55555555555644</v>
       </c>
       <c r="L370" t="n">
         <v>9.551000000000002</v>
@@ -19281,7 +19303,7 @@
         <v>11.28000000000004</v>
       </c>
       <c r="K371" t="n">
-        <v>9.09090909090887</v>
+        <v>39.99999999999858</v>
       </c>
       <c r="L371" t="n">
         <v>9.555000000000001</v>
@@ -19332,7 +19354,7 @@
         <v>11.28000000000004</v>
       </c>
       <c r="K372" t="n">
-        <v>6.976744186046338</v>
+        <v>-20.00000000000284</v>
       </c>
       <c r="L372" t="n">
         <v>9.559000000000001</v>
@@ -19383,7 +19405,7 @@
         <v>11.31000000000004</v>
       </c>
       <c r="K373" t="n">
-        <v>13.0434782608696</v>
+        <v>0</v>
       </c>
       <c r="L373" t="n">
         <v>9.561</v>
@@ -19434,7 +19456,7 @@
         <v>11.32000000000004</v>
       </c>
       <c r="K374" t="n">
-        <v>15.55555555555552</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L374" t="n">
         <v>9.559999999999999</v>
@@ -19485,7 +19507,7 @@
         <v>11.38000000000004</v>
       </c>
       <c r="K375" t="n">
-        <v>18.18181818181807</v>
+        <v>-53.846153846153</v>
       </c>
       <c r="L375" t="n">
         <v>9.553000000000001</v>
@@ -19536,7 +19558,7 @@
         <v>11.39000000000004</v>
       </c>
       <c r="K376" t="n">
-        <v>0</v>
+        <v>-57.14285714285624</v>
       </c>
       <c r="L376" t="n">
         <v>9.544999999999998</v>
@@ -19587,7 +19609,7 @@
         <v>11.39000000000004</v>
       </c>
       <c r="K377" t="n">
-        <v>15.15151515151528</v>
+        <v>-57.14285714285624</v>
       </c>
       <c r="L377" t="n">
         <v>9.536999999999997</v>
@@ -19638,7 +19660,7 @@
         <v>11.39000000000004</v>
       </c>
       <c r="K378" t="n">
-        <v>12.50000000000021</v>
+        <v>-53.846153846153</v>
       </c>
       <c r="L378" t="n">
         <v>9.528999999999996</v>
@@ -19689,7 +19711,7 @@
         <v>11.40000000000004</v>
       </c>
       <c r="K379" t="n">
-        <v>3.448275862068881</v>
+        <v>-38.46153846153825</v>
       </c>
       <c r="L379" t="n">
         <v>9.522999999999996</v>
@@ -19740,7 +19762,7 @@
         <v>11.41000000000004</v>
       </c>
       <c r="K380" t="n">
-        <v>18.51851851851803</v>
+        <v>-23.07692307692244</v>
       </c>
       <c r="L380" t="n">
         <v>9.518999999999997</v>
@@ -19791,7 +19813,7 @@
         <v>11.42000000000004</v>
       </c>
       <c r="K381" t="n">
-        <v>0</v>
+        <v>-28.57142857142785</v>
       </c>
       <c r="L381" t="n">
         <v>9.514999999999997</v>
@@ -19842,7 +19864,7 @@
         <v>11.42000000000004</v>
       </c>
       <c r="K382" t="n">
-        <v>0</v>
+        <v>-63.63636363636422</v>
       </c>
       <c r="L382" t="n">
         <v>9.510999999999999</v>
@@ -19893,7 +19915,7 @@
         <v>11.42000000000004</v>
       </c>
       <c r="K383" t="n">
-        <v>-26.31578947368441</v>
+        <v>-60.00000000000071</v>
       </c>
       <c r="L383" t="n">
         <v>9.504</v>
@@ -19944,7 +19966,7 @@
         <v>11.46000000000004</v>
       </c>
       <c r="K384" t="n">
-        <v>-52.3809523809519</v>
+        <v>-50</v>
       </c>
       <c r="L384" t="n">
         <v>9.494</v>
@@ -19995,7 +20017,7 @@
         <v>11.47000000000004</v>
       </c>
       <c r="K385" t="n">
-        <v>-45.45454545454516</v>
+        <v>-25</v>
       </c>
       <c r="L385" t="n">
         <v>9.491</v>
@@ -20046,7 +20068,7 @@
         <v>11.48000000000004</v>
       </c>
       <c r="K386" t="n">
-        <v>-47.8260869565214</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L386" t="n">
         <v>9.488000000000001</v>
@@ -20097,7 +20119,7 @@
         <v>11.49000000000004</v>
       </c>
       <c r="K387" t="n">
-        <v>-50</v>
+        <v>-40.00000000000107</v>
       </c>
       <c r="L387" t="n">
         <v>9.484000000000002</v>
@@ -20148,7 +20170,7 @@
         <v>11.57000000000004</v>
       </c>
       <c r="K388" t="n">
-        <v>-12.50000000000021</v>
+        <v>17.64705882352904</v>
       </c>
       <c r="L388" t="n">
         <v>9.488000000000003</v>
@@ -20199,7 +20221,7 @@
         <v>11.59000000000004</v>
       </c>
       <c r="K389" t="n">
-        <v>-3.030303030302933</v>
+        <v>22.22222222222255</v>
       </c>
       <c r="L389" t="n">
         <v>9.493000000000002</v>
@@ -20250,7 +20272,7 @@
         <v>11.61000000000004</v>
       </c>
       <c r="K390" t="n">
-        <v>5.882352941176286</v>
+        <v>36.8421052631578</v>
       </c>
       <c r="L390" t="n">
         <v>9.499000000000002</v>
@@ -20301,7 +20323,7 @@
         <v>11.62000000000004</v>
       </c>
       <c r="K391" t="n">
-        <v>11.76470588235316</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L391" t="n">
         <v>9.507000000000001</v>
@@ -20352,7 +20374,7 @@
         <v>11.62000000000004</v>
       </c>
       <c r="K392" t="n">
-        <v>11.76470588235316</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L392" t="n">
         <v>9.515000000000002</v>
@@ -20403,7 +20425,7 @@
         <v>11.62000000000004</v>
       </c>
       <c r="K393" t="n">
-        <v>3.22580645161283</v>
+        <v>74.99999999999861</v>
       </c>
       <c r="L393" t="n">
         <v>9.523000000000001</v>
@@ -20454,7 +20476,7 @@
         <v>11.62000000000004</v>
       </c>
       <c r="K394" t="n">
-        <v>6.666666666666508</v>
+        <v>73.33333333333191</v>
       </c>
       <c r="L394" t="n">
         <v>9.535000000000002</v>
@@ -20505,7 +20527,7 @@
         <v>11.62000000000004</v>
       </c>
       <c r="K395" t="n">
-        <v>33.33333333333333</v>
+        <v>85.71428571428372</v>
       </c>
       <c r="L395" t="n">
         <v>9.546000000000003</v>
@@ -20556,7 +20578,7 @@
         <v>11.62000000000004</v>
       </c>
       <c r="K396" t="n">
-        <v>39.13043478260856</v>
+        <v>100</v>
       </c>
       <c r="L396" t="n">
         <v>9.558000000000002</v>
@@ -20607,7 +20629,7 @@
         <v>11.62000000000004</v>
       </c>
       <c r="K397" t="n">
-        <v>39.13043478260856</v>
+        <v>100</v>
       </c>
       <c r="L397" t="n">
         <v>9.571000000000002</v>
@@ -20658,7 +20680,7 @@
         <v>11.62000000000004</v>
       </c>
       <c r="K398" t="n">
-        <v>39.13043478260856</v>
+        <v>100</v>
       </c>
       <c r="L398" t="n">
         <v>9.576000000000001</v>
@@ -20709,7 +20731,7 @@
         <v>11.62000000000004</v>
       </c>
       <c r="K399" t="n">
-        <v>36.3636363636363</v>
+        <v>100</v>
       </c>
       <c r="L399" t="n">
         <v>9.579000000000001</v>
@@ -20760,7 +20782,7 @@
         <v>11.63000000000004</v>
       </c>
       <c r="K400" t="n">
-        <v>36.3636363636363</v>
+        <v>100</v>
       </c>
       <c r="L400" t="n">
         <v>9.581</v>
@@ -20811,7 +20833,7 @@
         <v>11.66000000000004</v>
       </c>
       <c r="K401" t="n">
-        <v>49.99999999999963</v>
+        <v>100</v>
       </c>
       <c r="L401" t="n">
         <v>9.585000000000001</v>
@@ -20862,7 +20884,7 @@
         <v>11.66000000000004</v>
       </c>
       <c r="K402" t="n">
-        <v>49.99999999999963</v>
+        <v>100</v>
       </c>
       <c r="L402" t="n">
         <v>9.589000000000002</v>
@@ -20913,7 +20935,7 @@
         <v>11.67000000000004</v>
       </c>
       <c r="K403" t="n">
-        <v>51.99999999999994</v>
+        <v>100</v>
       </c>
       <c r="L403" t="n">
         <v>9.594000000000001</v>
@@ -20964,7 +20986,7 @@
         <v>11.67000000000004</v>
       </c>
       <c r="K404" t="n">
-        <v>80.95238095237991</v>
+        <v>100</v>
       </c>
       <c r="L404" t="n">
         <v>9.599</v>
@@ -21015,7 +21037,7 @@
         <v>11.68000000000004</v>
       </c>
       <c r="K405" t="n">
-        <v>80.95238095237991</v>
+        <v>100</v>
       </c>
       <c r="L405" t="n">
         <v>9.605</v>
@@ -21066,7 +21088,7 @@
         <v>11.71000000000004</v>
       </c>
       <c r="K406" t="n">
-        <v>91.30434782608569</v>
+        <v>100</v>
       </c>
       <c r="L406" t="n">
         <v>9.614000000000001</v>
@@ -21168,7 +21190,7 @@
         <v>11.74000000000004</v>
       </c>
       <c r="K408" t="n">
-        <v>64.70588235294191</v>
+        <v>50.00000000000075</v>
       </c>
       <c r="L408" t="n">
         <v>9.629000000000001</v>
@@ -21219,7 +21241,7 @@
         <v>11.79000000000004</v>
       </c>
       <c r="K409" t="n">
-        <v>70.00000000000026</v>
+        <v>62.50000000000042</v>
       </c>
       <c r="L409" t="n">
         <v>9.640000000000002</v>
@@ -21270,7 +21292,7 @@
         <v>11.81000000000004</v>
       </c>
       <c r="K410" t="n">
-        <v>50.00000000000044</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L410" t="n">
         <v>9.648000000000001</v>
@@ -21321,7 +21343,7 @@
         <v>11.82000000000004</v>
       </c>
       <c r="K411" t="n">
-        <v>40.00000000000053</v>
+        <v>25.00000000000083</v>
       </c>
       <c r="L411" t="n">
         <v>9.652000000000001</v>
@@ -21372,7 +21394,7 @@
         <v>11.82000000000004</v>
       </c>
       <c r="K412" t="n">
-        <v>40.00000000000053</v>
+        <v>20</v>
       </c>
       <c r="L412" t="n">
         <v>9.656000000000001</v>
@@ -21423,7 +21445,7 @@
         <v>11.82000000000004</v>
       </c>
       <c r="K413" t="n">
-        <v>40.00000000000053</v>
+        <v>20</v>
       </c>
       <c r="L413" t="n">
         <v>9.659000000000001</v>
@@ -21474,7 +21496,7 @@
         <v>11.82000000000004</v>
       </c>
       <c r="K414" t="n">
-        <v>40.00000000000053</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L414" t="n">
         <v>9.662000000000001</v>
@@ -21525,7 +21547,7 @@
         <v>11.85000000000004</v>
       </c>
       <c r="K415" t="n">
-        <v>47.82608695652214</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L415" t="n">
         <v>9.667</v>
@@ -21576,7 +21598,7 @@
         <v>11.87000000000003</v>
       </c>
       <c r="K416" t="n">
-        <v>36.00000000000045</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>9.667</v>
@@ -21627,7 +21649,7 @@
         <v>11.87000000000003</v>
       </c>
       <c r="K417" t="n">
-        <v>36.00000000000045</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L417" t="n">
         <v>9.667</v>
@@ -21678,7 +21700,7 @@
         <v>11.88000000000003</v>
       </c>
       <c r="K418" t="n">
-        <v>30.76923076923124</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L418" t="n">
         <v>9.669</v>
@@ -21729,7 +21751,7 @@
         <v>11.88000000000003</v>
       </c>
       <c r="K419" t="n">
-        <v>30.76923076923124</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L419" t="n">
         <v>9.666</v>
@@ -21780,7 +21802,7 @@
         <v>11.88000000000003</v>
       </c>
       <c r="K420" t="n">
-        <v>28.00000000000051</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>9.664999999999999</v>
@@ -21831,7 +21853,7 @@
         <v>11.90000000000003</v>
       </c>
       <c r="K421" t="n">
-        <v>25.00000000000055</v>
+        <v>25</v>
       </c>
       <c r="L421" t="n">
         <v>9.666999999999998</v>
@@ -21882,7 +21904,7 @@
         <v>11.95000000000003</v>
       </c>
       <c r="K422" t="n">
-        <v>3.448275862069557</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L422" t="n">
         <v>9.663999999999998</v>
@@ -21933,7 +21955,7 @@
         <v>12.00000000000003</v>
       </c>
       <c r="K423" t="n">
-        <v>15.15151515151515</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L423" t="n">
         <v>9.666</v>
@@ -21984,7 +22006,7 @@
         <v>12.00000000000003</v>
       </c>
       <c r="K424" t="n">
-        <v>15.15151515151515</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L424" t="n">
         <v>9.668000000000001</v>
@@ -22035,7 +22057,7 @@
         <v>12.00000000000003</v>
       </c>
       <c r="K425" t="n">
-        <v>12.5</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L425" t="n">
         <v>9.667000000000002</v>
@@ -22086,7 +22108,7 @@
         <v>12.01000000000003</v>
       </c>
       <c r="K426" t="n">
-        <v>6.666666666666667</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L426" t="n">
         <v>9.669</v>
@@ -22137,7 +22159,7 @@
         <v>12.01000000000003</v>
       </c>
       <c r="K427" t="n">
-        <v>6.666666666666667</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L427" t="n">
         <v>9.671000000000001</v>
@@ -22188,7 +22210,7 @@
         <v>12.04000000000003</v>
       </c>
       <c r="K428" t="n">
-        <v>26.6666666666671</v>
+        <v>37.5000000000007</v>
       </c>
       <c r="L428" t="n">
         <v>9.677000000000001</v>
@@ -22239,7 +22261,7 @@
         <v>12.08000000000003</v>
       </c>
       <c r="K429" t="n">
-        <v>24.13793103448322</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L429" t="n">
         <v>9.687000000000001</v>
@@ -22290,7 +22312,7 @@
         <v>12.10000000000003</v>
       </c>
       <c r="K430" t="n">
-        <v>37.931034482759</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L430" t="n">
         <v>9.699000000000002</v>
@@ -22341,7 +22363,7 @@
         <v>12.19000000000003</v>
       </c>
       <c r="K431" t="n">
-        <v>56.75675675675718</v>
+        <v>100</v>
       </c>
       <c r="L431" t="n">
         <v>9.718000000000004</v>
@@ -22392,7 +22414,7 @@
         <v>12.21000000000003</v>
       </c>
       <c r="K432" t="n">
-        <v>48.71794871794918</v>
+        <v>80.95238095238128</v>
       </c>
       <c r="L432" t="n">
         <v>9.740000000000004</v>
@@ -22443,7 +22465,7 @@
         <v>12.22000000000003</v>
       </c>
       <c r="K433" t="n">
-        <v>45.00000000000049</v>
+        <v>72.72727272727316</v>
       </c>
       <c r="L433" t="n">
         <v>9.756000000000004</v>
@@ -22494,7 +22516,7 @@
         <v>12.25000000000003</v>
       </c>
       <c r="K434" t="n">
-        <v>48.83720930232601</v>
+        <v>76.00000000000034</v>
       </c>
       <c r="L434" t="n">
         <v>9.775000000000002</v>
@@ -22545,7 +22567,7 @@
         <v>12.28000000000003</v>
       </c>
       <c r="K435" t="n">
-        <v>48.83720930232622</v>
+        <v>77.77777777777821</v>
       </c>
       <c r="L435" t="n">
         <v>9.797000000000002</v>
@@ -22596,7 +22618,7 @@
         <v>12.38000000000003</v>
       </c>
       <c r="K436" t="n">
-        <v>64.70588235294167</v>
+        <v>83.78378378378409</v>
       </c>
       <c r="L436" t="n">
         <v>9.828000000000003</v>
@@ -22647,7 +22669,7 @@
         <v>12.58000000000003</v>
       </c>
       <c r="K437" t="n">
-        <v>74.64788732394403</v>
+        <v>88.88888888888907</v>
       </c>
       <c r="L437" t="n">
         <v>9.879000000000003</v>
@@ -22698,7 +22720,7 @@
         <v>12.58000000000003</v>
       </c>
       <c r="K438" t="n">
-        <v>77.14285714285749</v>
+        <v>88.00000000000021</v>
       </c>
       <c r="L438" t="n">
         <v>9.927000000000003</v>
@@ -22749,7 +22771,7 @@
         <v>12.79000000000003</v>
       </c>
       <c r="K439" t="n">
-        <v>36.26373626373648</v>
+        <v>30.43478260869588</v>
       </c>
       <c r="L439" t="n">
         <v>9.950000000000003</v>
@@ -22800,7 +22822,7 @@
         <v>12.79000000000003</v>
       </c>
       <c r="K440" t="n">
-        <v>36.26373626373648</v>
+        <v>20.00000000000024</v>
       </c>
       <c r="L440" t="n">
         <v>9.971000000000002</v>
@@ -22851,7 +22873,7 @@
         <v>12.80000000000003</v>
       </c>
       <c r="K441" t="n">
-        <v>35.55555555555578</v>
+        <v>25.42372881355946</v>
       </c>
       <c r="L441" t="n">
         <v>9.984000000000002</v>
@@ -22902,7 +22924,7 @@
         <v>12.90000000000003</v>
       </c>
       <c r="K442" t="n">
-        <v>49.47368421052642</v>
+        <v>38.23529411764714</v>
       </c>
       <c r="L442" t="n">
         <v>10.009</v>
@@ -22953,7 +22975,7 @@
         <v>13.00000000000003</v>
       </c>
       <c r="K443" t="n">
-        <v>32.00000000000014</v>
+        <v>17.33333333333348</v>
       </c>
       <c r="L443" t="n">
         <v>10.025</v>
@@ -23004,7 +23026,7 @@
         <v>13.10000000000003</v>
       </c>
       <c r="K444" t="n">
-        <v>38.18181818181831</v>
+        <v>24.39024390243904</v>
       </c>
       <c r="L444" t="n">
         <v>10.048</v>
@@ -23055,7 +23077,7 @@
         <v>13.20000000000003</v>
       </c>
       <c r="K445" t="n">
-        <v>43.33333333333345</v>
+        <v>24.39024390243904</v>
       </c>
       <c r="L445" t="n">
         <v>10.078</v>
@@ -23106,7 +23128,7 @@
         <v>13.40000000000003</v>
       </c>
       <c r="K446" t="n">
-        <v>22.3021582733814</v>
+        <v>-24.39024390243904</v>
       </c>
       <c r="L446" t="n">
         <v>10.078</v>
@@ -23163,7 +23185,7 @@
         <v>13.40000000000003</v>
       </c>
       <c r="K447" t="n">
-        <v>22.3021582733814</v>
+        <v>-24.39024390243904</v>
       </c>
       <c r="L447" t="n">
         <v>10.058</v>
@@ -23222,7 +23244,7 @@
         <v>13.50000000000003</v>
       </c>
       <c r="K448" t="n">
-        <v>26.02739726027401</v>
+        <v>15.49295774647885</v>
       </c>
       <c r="L448" t="n">
         <v>10.048</v>
@@ -23285,7 +23307,7 @@
         <v>13.50000000000003</v>
       </c>
       <c r="K449" t="n">
-        <v>23.94366197183107</v>
+        <v>15.49295774647885</v>
       </c>
       <c r="L449" t="n">
         <v>10.059</v>
@@ -23348,7 +23370,7 @@
         <v>13.60000000000003</v>
       </c>
       <c r="K450" t="n">
-        <v>28.0000000000001</v>
+        <v>25</v>
       </c>
       <c r="L450" t="n">
         <v>10.08</v>
@@ -23409,7 +23431,7 @@
         <v>13.70000000000003</v>
       </c>
       <c r="K451" t="n">
-        <v>28.47682119205315</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L451" t="n">
         <v>10.11</v>
@@ -23470,7 +23492,7 @@
         <v>13.70000000000003</v>
       </c>
       <c r="K452" t="n">
-        <v>30.20134228187933</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L452" t="n">
         <v>10.13</v>
@@ -23531,7 +23553,7 @@
         <v>13.70000000000003</v>
       </c>
       <c r="K453" t="n">
-        <v>31.0810810810812</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L453" t="n">
         <v>10.16</v>
@@ -23592,7 +23614,7 @@
         <v>13.80000000000003</v>
       </c>
       <c r="K454" t="n">
-        <v>21.29032258064518</v>
+        <v>0</v>
       </c>
       <c r="L454" t="n">
         <v>10.17</v>
@@ -23653,7 +23675,7 @@
         <v>13.80000000000003</v>
       </c>
       <c r="K455" t="n">
-        <v>19.73684210526311</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L455" t="n">
         <v>10.17</v>
@@ -23714,7 +23736,7 @@
         <v>13.90000000000003</v>
       </c>
       <c r="K456" t="n">
-        <v>6.578947368421038</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L456" t="n">
         <v>10.18</v>
@@ -23775,7 +23797,7 @@
         <v>14.00000000000003</v>
       </c>
       <c r="K457" t="n">
-        <v>-14.08450704225349</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L457" t="n">
         <v>10.18</v>
@@ -23832,7 +23854,7 @@
         <v>14.10000000000003</v>
       </c>
       <c r="K458" t="n">
-        <v>-6.578947368421038</v>
+        <v>0</v>
       </c>
       <c r="L458" t="n">
         <v>10.18</v>
@@ -23889,7 +23911,7 @@
         <v>14.10000000000003</v>
       </c>
       <c r="K459" t="n">
-        <v>8.396946564885461</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L459" t="n">
         <v>10.18</v>
@@ -23946,7 +23968,7 @@
         <v>14.20000000000003</v>
       </c>
       <c r="K460" t="n">
-        <v>14.89361702127655</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L460" t="n">
         <v>10.18</v>
@@ -24003,7 +24025,7 @@
         <v>14.30000000000003</v>
       </c>
       <c r="K461" t="n">
-        <v>6.666666666666651</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L461" t="n">
         <v>10.16</v>
@@ -24060,7 +24082,7 @@
         <v>14.30000000000003</v>
       </c>
       <c r="K462" t="n">
-        <v>0</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L462" t="n">
         <v>10.14</v>
@@ -24117,7 +24139,7 @@
         <v>14.40000000000003</v>
       </c>
       <c r="K463" t="n">
-        <v>14.28571428571425</v>
+        <v>0</v>
       </c>
       <c r="L463" t="n">
         <v>10.13</v>
@@ -24174,7 +24196,7 @@
         <v>14.50000000000003</v>
       </c>
       <c r="K464" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L464" t="n">
         <v>10.12</v>
@@ -24231,7 +24253,7 @@
         <v>14.50000000000003</v>
       </c>
       <c r="K465" t="n">
-        <v>-7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L465" t="n">
         <v>10.11</v>
@@ -24282,7 +24304,7 @@
         <v>14.60000000000003</v>
       </c>
       <c r="K466" t="n">
-        <v>16.66666666666662</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L466" t="n">
         <v>10.12</v>
@@ -24333,7 +24355,7 @@
         <v>14.60000000000003</v>
       </c>
       <c r="K467" t="n">
-        <v>16.66666666666662</v>
+        <v>20</v>
       </c>
       <c r="L467" t="n">
         <v>10.14</v>
@@ -24384,7 +24406,7 @@
         <v>14.70000000000003</v>
       </c>
       <c r="K468" t="n">
-        <v>16.66666666666674</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L468" t="n">
         <v>10.16</v>
@@ -24435,7 +24457,7 @@
         <v>14.70000000000003</v>
       </c>
       <c r="K469" t="n">
-        <v>16.66666666666674</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L469" t="n">
         <v>10.18</v>
@@ -24486,7 +24508,7 @@
         <v>14.70000000000003</v>
       </c>
       <c r="K470" t="n">
-        <v>9.090909090909207</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L470" t="n">
         <v>10.19</v>
@@ -24537,7 +24559,7 @@
         <v>14.70000000000003</v>
       </c>
       <c r="K471" t="n">
-        <v>0</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L471" t="n">
         <v>10.21</v>
@@ -24588,7 +24610,7 @@
         <v>14.80000000000003</v>
       </c>
       <c r="K472" t="n">
-        <v>9.090909090909062</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L472" t="n">
         <v>10.24</v>
@@ -24639,7 +24661,7 @@
         <v>14.80000000000003</v>
       </c>
       <c r="K473" t="n">
-        <v>9.090909090909062</v>
+        <v>100</v>
       </c>
       <c r="L473" t="n">
         <v>10.26</v>
@@ -24690,7 +24712,7 @@
         <v>14.90000000000003</v>
       </c>
       <c r="K474" t="n">
-        <v>9.090909090909239</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L474" t="n">
         <v>10.28</v>
@@ -24741,7 +24763,7 @@
         <v>15.00000000000003</v>
       </c>
       <c r="K475" t="n">
-        <v>16.66666666666679</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L475" t="n">
         <v>10.31</v>
@@ -24792,7 +24814,7 @@
         <v>15.00000000000003</v>
       </c>
       <c r="K476" t="n">
-        <v>27.27272727272739</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L476" t="n">
         <v>10.33</v>
@@ -24843,7 +24865,7 @@
         <v>15.10000000000003</v>
       </c>
       <c r="K477" t="n">
-        <v>27.27272727272739</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>10.34</v>
@@ -24894,7 +24916,7 @@
         <v>15.30000000000003</v>
       </c>
       <c r="K478" t="n">
-        <v>0</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L478" t="n">
         <v>10.32</v>
@@ -24945,7 +24967,7 @@
         <v>15.40000000000003</v>
       </c>
       <c r="K479" t="n">
-        <v>7.692307692307672</v>
+        <v>-14.2857142857145</v>
       </c>
       <c r="L479" t="n">
         <v>10.31</v>
@@ -24996,7 +25018,7 @@
         <v>15.50000000000003</v>
       </c>
       <c r="K480" t="n">
-        <v>-7.692307692307672</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L480" t="n">
         <v>10.29</v>
@@ -25047,7 +25069,7 @@
         <v>15.60000000000003</v>
       </c>
       <c r="K481" t="n">
-        <v>7.692307692307672</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L481" t="n">
         <v>10.28</v>
@@ -25098,7 +25120,7 @@
         <v>15.70000000000003</v>
       </c>
       <c r="K482" t="n">
-        <v>0</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L482" t="n">
         <v>10.25</v>
@@ -25149,7 +25171,7 @@
         <v>15.80000000000003</v>
       </c>
       <c r="K483" t="n">
-        <v>0</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L483" t="n">
         <v>10.23</v>
@@ -25200,7 +25222,7 @@
         <v>15.80000000000003</v>
       </c>
       <c r="K484" t="n">
-        <v>7.692307692307672</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L484" t="n">
         <v>10.22</v>
@@ -25251,7 +25273,7 @@
         <v>15.90000000000003</v>
       </c>
       <c r="K485" t="n">
-        <v>0</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L485" t="n">
         <v>10.19</v>
@@ -25302,7 +25324,7 @@
         <v>16.10000000000003</v>
       </c>
       <c r="K486" t="n">
-        <v>6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L486" t="n">
         <v>10.18</v>
@@ -25353,7 +25375,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K487" t="n">
-        <v>0</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L487" t="n">
         <v>10.17</v>
@@ -25404,7 +25426,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K488" t="n">
-        <v>-6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L488" t="n">
         <v>10.18</v>
@@ -25455,7 +25477,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K489" t="n">
-        <v>-6.666666666666761</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L489" t="n">
         <v>10.18</v>
@@ -25506,7 +25528,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K490" t="n">
-        <v>-6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L490" t="n">
         <v>10.19</v>
@@ -25557,7 +25579,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K491" t="n">
-        <v>-6.666666666666761</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L491" t="n">
         <v>10.19</v>
@@ -25608,7 +25630,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K492" t="n">
-        <v>-14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
         <v>10.2</v>
@@ -25659,7 +25681,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K493" t="n">
-        <v>-14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L493" t="n">
         <v>10.2</v>
@@ -25710,7 +25732,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K494" t="n">
-        <v>-7.692307692307796</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L494" t="n">
         <v>10.2</v>
@@ -25761,7 +25783,7 @@
         <v>16.20000000000003</v>
       </c>
       <c r="K495" t="n">
-        <v>-16.66666666666674</v>
+        <v>-100</v>
       </c>
       <c r="L495" t="n">
         <v>10.21</v>
@@ -25811,9 +25833,7 @@
       <c r="J496" t="n">
         <v>16.20000000000003</v>
       </c>
-      <c r="K496" t="n">
-        <v>-16.66666666666674</v>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>10.2</v>
       </c>
@@ -25863,7 +25883,7 @@
         <v>16.30000000000003</v>
       </c>
       <c r="K497" t="n">
-        <v>-16.66666666666677</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L497" t="n">
         <v>10.19</v>
@@ -25914,7 +25934,7 @@
         <v>16.30000000000003</v>
       </c>
       <c r="K498" t="n">
-        <v>0</v>
+        <v>-100.0000000000018</v>
       </c>
       <c r="L498" t="n">
         <v>10.18</v>
@@ -25965,7 +25985,7 @@
         <v>16.40000000000003</v>
       </c>
       <c r="K499" t="n">
-        <v>-19.99999999999993</v>
+        <v>-100</v>
       </c>
       <c r="L499" t="n">
         <v>10.16</v>
@@ -26016,7 +26036,7 @@
         <v>16.42000000000003</v>
       </c>
       <c r="K500" t="n">
-        <v>-13.04347826086948</v>
+        <v>-100</v>
       </c>
       <c r="L500" t="n">
         <v>10.138</v>
@@ -26067,7 +26087,7 @@
         <v>16.54000000000003</v>
       </c>
       <c r="K501" t="n">
-        <v>-10.63829787234037</v>
+        <v>-29.41176470588226</v>
       </c>
       <c r="L501" t="n">
         <v>10.128</v>
@@ -26118,7 +26138,7 @@
         <v>16.64000000000003</v>
       </c>
       <c r="K502" t="n">
-        <v>-10.63829787234035</v>
+        <v>-45.45454545454516</v>
       </c>
       <c r="L502" t="n">
         <v>10.108</v>
@@ -26169,7 +26189,7 @@
         <v>16.64000000000003</v>
       </c>
       <c r="K503" t="n">
-        <v>-23.80952380952363</v>
+        <v>-45.45454545454516</v>
       </c>
       <c r="L503" t="n">
         <v>10.088</v>
@@ -26220,7 +26240,7 @@
         <v>16.74000000000003</v>
       </c>
       <c r="K504" t="n">
-        <v>-10.63829787234033</v>
+        <v>-18.51851851851836</v>
       </c>
       <c r="L504" t="n">
         <v>10.078</v>
@@ -26271,7 +26291,7 @@
         <v>16.92000000000003</v>
       </c>
       <c r="K505" t="n">
-        <v>-17.6470588235293</v>
+        <v>-38.88888888888867</v>
       </c>
       <c r="L505" t="n">
         <v>10.05</v>
@@ -26322,7 +26342,7 @@
         <v>16.98000000000003</v>
       </c>
       <c r="K506" t="n">
-        <v>-36.36363636363614</v>
+        <v>-17.64705882352912</v>
       </c>
       <c r="L506" t="n">
         <v>10.028</v>
@@ -26373,7 +26393,7 @@
         <v>16.98000000000003</v>
       </c>
       <c r="K507" t="n">
-        <v>-28.20512820512789</v>
+        <v>-17.64705882352912</v>
       </c>
       <c r="L507" t="n">
         <v>10.016</v>
@@ -26424,7 +26444,7 @@
         <v>17.03000000000003</v>
       </c>
       <c r="K508" t="n">
-        <v>-32.53012048192745</v>
+        <v>-11.11111111111105</v>
       </c>
       <c r="L508" t="n">
         <v>9.999000000000001</v>
@@ -26475,7 +26495,7 @@
         <v>17.07000000000004</v>
       </c>
       <c r="K509" t="n">
-        <v>-26.436781609195</v>
+        <v>-1.538461538461484</v>
       </c>
       <c r="L509" t="n">
         <v>9.996</v>
@@ -26526,7 +26546,7 @@
         <v>17.10000000000004</v>
       </c>
       <c r="K510" t="n">
-        <v>-22.22222222222192</v>
+        <v>-17.8571428571425</v>
       </c>
       <c r="L510" t="n">
         <v>9.998000000000001</v>
@@ -26577,7 +26597,7 @@
         <v>17.10000000000004</v>
       </c>
       <c r="K511" t="n">
-        <v>-22.22222222222192</v>
+        <v>0</v>
       </c>
       <c r="L511" t="n">
         <v>9.988000000000001</v>
@@ -26628,7 +26648,7 @@
         <v>17.11000000000003</v>
       </c>
       <c r="K512" t="n">
-        <v>-23.07692307692279</v>
+        <v>-2.127659574468013</v>
       </c>
       <c r="L512" t="n">
         <v>9.987</v>
@@ -26679,7 +26699,7 @@
         <v>17.11000000000003</v>
       </c>
       <c r="K513" t="n">
-        <v>-23.07692307692279</v>
+        <v>-29.72972972972921</v>
       </c>
       <c r="L513" t="n">
         <v>9.986000000000001</v>
@@ -26730,7 +26750,7 @@
         <v>17.11000000000003</v>
       </c>
       <c r="K514" t="n">
-        <v>-23.07692307692279</v>
+        <v>36.84210526315711</v>
       </c>
       <c r="L514" t="n">
         <v>9.975</v>
@@ -26781,7 +26801,7 @@
         <v>17.12000000000003</v>
       </c>
       <c r="K515" t="n">
-        <v>-23.91304347826061</v>
+        <v>0</v>
       </c>
       <c r="L515" t="n">
         <v>9.981</v>
@@ -26832,7 +26852,7 @@
         <v>17.19000000000003</v>
       </c>
       <c r="K516" t="n">
-        <v>-29.29292929292904</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L516" t="n">
         <v>9.974</v>
@@ -26883,7 +26903,7 @@
         <v>17.25000000000004</v>
       </c>
       <c r="K517" t="n">
-        <v>-13.68421052631554</v>
+        <v>18.1818181818184</v>
       </c>
       <c r="L517" t="n">
         <v>9.972999999999999</v>
@@ -26934,7 +26954,7 @@
         <v>17.33000000000003</v>
       </c>
       <c r="K518" t="n">
-        <v>-20.38834951456285</v>
+        <v>-30.76923076923103</v>
       </c>
       <c r="L518" t="n">
         <v>9.968999999999999</v>
@@ -26985,7 +27005,7 @@
         <v>17.34000000000003</v>
       </c>
       <c r="K519" t="n">
-        <v>-10.63829787234033</v>
+        <v>-41.66666666666741</v>
       </c>
       <c r="L519" t="n">
         <v>9.962</v>
@@ -27036,7 +27056,7 @@
         <v>17.38000000000003</v>
       </c>
       <c r="K520" t="n">
-        <v>-12.50000000000005</v>
+        <v>-50.00000000000126</v>
       </c>
       <c r="L520" t="n">
         <v>9.948</v>
@@ -27087,7 +27107,7 @@
         <v>17.47000000000003</v>
       </c>
       <c r="K521" t="n">
-        <v>-16.1290322580645</v>
+        <v>-11.11111111111149</v>
       </c>
       <c r="L521" t="n">
         <v>9.943000000000001</v>
@@ -27138,7 +27158,7 @@
         <v>17.48000000000003</v>
       </c>
       <c r="K522" t="n">
-        <v>-7.142857142857173</v>
+        <v>-13.5135135135138</v>
       </c>
       <c r="L522" t="n">
         <v>9.938000000000001</v>
@@ -27189,7 +27209,7 @@
         <v>17.50000000000003</v>
       </c>
       <c r="K523" t="n">
-        <v>-9.302325581395325</v>
+        <v>-17.94871794871816</v>
       </c>
       <c r="L523" t="n">
         <v>9.931000000000001</v>
@@ -27240,7 +27260,7 @@
         <v>17.55000000000003</v>
       </c>
       <c r="K524" t="n">
-        <v>-16.04938271604922</v>
+        <v>-2.325581395348789</v>
       </c>
       <c r="L524" t="n">
         <v>9.929000000000002</v>
@@ -27291,7 +27311,7 @@
         <v>17.62000000000003</v>
       </c>
       <c r="K525" t="n">
-        <v>-2.857142857142784</v>
+        <v>-2.325581395348789</v>
       </c>
       <c r="L525" t="n">
         <v>9.921000000000003</v>
@@ -27342,7 +27362,7 @@
         <v>17.62000000000003</v>
       </c>
       <c r="K526" t="n">
-        <v>-12.5</v>
+        <v>-18.91891891891913</v>
       </c>
       <c r="L526" t="n">
         <v>9.920000000000003</v>
@@ -27393,7 +27413,7 @@
         <v>17.67000000000003</v>
       </c>
       <c r="K527" t="n">
-        <v>-4.347826086956701</v>
+        <v>17.64705882352923</v>
       </c>
       <c r="L527" t="n">
         <v>9.918000000000003</v>
@@ -27444,7 +27464,7 @@
         <v>17.67000000000003</v>
       </c>
       <c r="K528" t="n">
-        <v>3.124999999999948</v>
+        <v>15.15151515151491</v>
       </c>
       <c r="L528" t="n">
         <v>9.924000000000003</v>
@@ -27495,7 +27515,7 @@
         <v>17.67000000000003</v>
       </c>
       <c r="K529" t="n">
-        <v>-3.33333333333359</v>
+        <v>31.03448275862073</v>
       </c>
       <c r="L529" t="n">
         <v>9.929000000000004</v>
@@ -27546,7 +27566,7 @@
         <v>17.67000000000003</v>
       </c>
       <c r="K530" t="n">
-        <v>-8.771929824561633</v>
+        <v>0</v>
       </c>
       <c r="L530" t="n">
         <v>9.938000000000004</v>
@@ -27597,7 +27617,7 @@
         <v>17.67000000000003</v>
       </c>
       <c r="K531" t="n">
-        <v>-8.771929824561633</v>
+        <v>5.263157894736794</v>
       </c>
       <c r="L531" t="n">
         <v>9.938000000000004</v>
@@ -27648,7 +27668,7 @@
         <v>17.67000000000003</v>
       </c>
       <c r="K532" t="n">
-        <v>-7.14285714285737</v>
+        <v>17.64705882352923</v>
       </c>
       <c r="L532" t="n">
         <v>9.939000000000004</v>
@@ -27699,7 +27719,7 @@
         <v>17.68000000000003</v>
       </c>
       <c r="K533" t="n">
-        <v>-8.771929824561633</v>
+        <v>-23.07692307692476</v>
       </c>
       <c r="L533" t="n">
         <v>9.941000000000004</v>
@@ -27750,7 +27770,7 @@
         <v>17.69000000000003</v>
       </c>
       <c r="K534" t="n">
-        <v>-10.34482758620714</v>
+        <v>42.85714285714612</v>
       </c>
       <c r="L534" t="n">
         <v>9.937000000000003</v>
@@ -27801,7 +27821,7 @@
         <v>17.71000000000003</v>
       </c>
       <c r="K535" t="n">
-        <v>-11.86440677966121</v>
+        <v>11.11111111111177</v>
       </c>
       <c r="L535" t="n">
         <v>9.938000000000002</v>
@@ -27852,7 +27872,7 @@
         <v>17.73000000000003</v>
       </c>
       <c r="K536" t="n">
-        <v>-3.703703703703679</v>
+        <v>-100.0000000000059</v>
       </c>
       <c r="L536" t="n">
         <v>9.937000000000001</v>
@@ -27903,7 +27923,7 @@
         <v>17.73000000000003</v>
       </c>
       <c r="K537" t="n">
-        <v>-16.66666666666704</v>
+        <v>-100.0000000000059</v>
       </c>
       <c r="L537" t="n">
         <v>9.931000000000001</v>
@@ -27954,7 +27974,7 @@
         <v>17.76000000000003</v>
       </c>
       <c r="K538" t="n">
-        <v>-6.976744186046896</v>
+        <v>-100.000000000004</v>
       </c>
       <c r="L538" t="n">
         <v>9.922000000000001</v>
@@ -28005,7 +28025,7 @@
         <v>17.79000000000003</v>
       </c>
       <c r="K539" t="n">
-        <v>-2.222222222222196</v>
+        <v>-50</v>
       </c>
       <c r="L539" t="n">
         <v>9.916</v>
@@ -28056,7 +28076,7 @@
         <v>17.81000000000003</v>
       </c>
       <c r="K540" t="n">
-        <v>11.62790697674446</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L540" t="n">
         <v>9.912000000000001</v>
@@ -28107,7 +28127,7 @@
         <v>17.86000000000003</v>
       </c>
       <c r="K541" t="n">
-        <v>2.564102564102984</v>
+        <v>5.263157894737728</v>
       </c>
       <c r="L541" t="n">
         <v>9.913</v>
@@ -28158,7 +28178,7 @@
         <v>17.90000000000003</v>
       </c>
       <c r="K542" t="n">
-        <v>14.28571428571459</v>
+        <v>27.27272727272764</v>
       </c>
       <c r="L542" t="n">
         <v>9.918000000000001</v>
@@ -28209,7 +28229,7 @@
         <v>17.91000000000003</v>
       </c>
       <c r="K543" t="n">
-        <v>17.07317073170768</v>
+        <v>27.27272727272764</v>
       </c>
       <c r="L543" t="n">
         <v>9.923</v>
@@ -28260,7 +28280,7 @@
         <v>17.91000000000003</v>
       </c>
       <c r="K544" t="n">
-        <v>5.555555555555555</v>
+        <v>40.00000000000018</v>
       </c>
       <c r="L544" t="n">
         <v>9.928999999999998</v>
@@ -28311,7 +28331,7 @@
         <v>17.91000000000003</v>
       </c>
       <c r="K545" t="n">
-        <v>31.03448275862149</v>
+        <v>55.55555555555544</v>
       </c>
       <c r="L545" t="n">
         <v>9.936999999999999</v>
@@ -28362,7 +28382,7 @@
         <v>17.92000000000002</v>
       </c>
       <c r="K546" t="n">
-        <v>26.66666666666758</v>
+        <v>47.36842105263207</v>
       </c>
       <c r="L546" t="n">
         <v>9.946</v>
@@ -28413,7 +28433,7 @@
         <v>17.92000000000002</v>
       </c>
       <c r="K547" t="n">
-        <v>12.0000000000008</v>
+        <v>75.00000000000222</v>
       </c>
       <c r="L547" t="n">
         <v>9.955</v>
@@ -28464,7 +28484,7 @@
         <v>17.96000000000002</v>
       </c>
       <c r="K548" t="n">
-        <v>-3.448275862068987</v>
+        <v>29.41176470588266</v>
       </c>
       <c r="L548" t="n">
         <v>9.962999999999999</v>
@@ -28515,7 +28535,7 @@
         <v>18.00000000000002</v>
       </c>
       <c r="K549" t="n">
-        <v>9.090909090909678</v>
+        <v>36.84210526315918</v>
       </c>
       <c r="L549" t="n">
         <v>9.972</v>
@@ -28566,7 +28586,7 @@
         <v>18.00000000000002</v>
       </c>
       <c r="K550" t="n">
-        <v>9.090909090909678</v>
+        <v>14.28571428571465</v>
       </c>
       <c r="L550" t="n">
         <v>9.979000000000001</v>
@@ -28617,7 +28637,7 @@
         <v>18.00000000000002</v>
       </c>
       <c r="K551" t="n">
-        <v>9.090909090909678</v>
+        <v>-20.00000000000071</v>
       </c>
       <c r="L551" t="n">
         <v>9.981</v>
@@ -28668,7 +28688,7 @@
         <v>18.13000000000002</v>
       </c>
       <c r="K552" t="n">
-        <v>-21.73913043478283</v>
+        <v>-63.63636363636422</v>
       </c>
       <c r="L552" t="n">
         <v>9.965999999999999</v>
@@ -28719,7 +28739,7 @@
         <v>18.14000000000002</v>
       </c>
       <c r="K553" t="n">
-        <v>-17.39130434782634</v>
+        <v>-56.52173913043589</v>
       </c>
       <c r="L553" t="n">
         <v>9.952999999999999</v>
@@ -28770,7 +28790,7 @@
         <v>18.21000000000002</v>
       </c>
       <c r="K554" t="n">
-        <v>-26.92307692307724</v>
+        <v>-66.66666666666765</v>
       </c>
       <c r="L554" t="n">
         <v>9.933</v>
@@ -28821,7 +28841,7 @@
         <v>18.27000000000002</v>
       </c>
       <c r="K555" t="n">
-        <v>-10.71428571428583</v>
+        <v>-37.14285714285722</v>
       </c>
       <c r="L555" t="n">
         <v>9.919</v>
@@ -28872,7 +28892,7 @@
         <v>18.30000000000003</v>
       </c>
       <c r="K556" t="n">
-        <v>-1.754385964912242</v>
+        <v>-26.31578947368394</v>
       </c>
       <c r="L556" t="n">
         <v>9.908999999999999</v>
@@ -28923,7 +28943,7 @@
         <v>18.30000000000003</v>
       </c>
       <c r="K557" t="n">
-        <v>-1.754385964912242</v>
+        <v>-17.64705882352886</v>
       </c>
       <c r="L557" t="n">
         <v>9.898999999999997</v>
@@ -28974,7 +28994,7 @@
         <v>18.30000000000003</v>
       </c>
       <c r="K558" t="n">
-        <v>3.70370370370396</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L558" t="n">
         <v>9.892999999999997</v>
@@ -29025,7 +29045,7 @@
         <v>18.31000000000002</v>
       </c>
       <c r="K559" t="n">
-        <v>0</v>
+        <v>-29.03225806451587</v>
       </c>
       <c r="L559" t="n">
         <v>9.883999999999997</v>
@@ -29076,7 +29096,7 @@
         <v>18.40000000000002</v>
       </c>
       <c r="K560" t="n">
-        <v>11.86440677966114</v>
+        <v>0</v>
       </c>
       <c r="L560" t="n">
         <v>9.883999999999997</v>
@@ -29127,7 +29147,7 @@
         <v>18.56000000000002</v>
       </c>
       <c r="K561" t="n">
-        <v>-20.0000000000002</v>
+        <v>-6.976744186046367</v>
       </c>
       <c r="L561" t="n">
         <v>9.867999999999997</v>
@@ -29178,7 +29198,7 @@
         <v>18.67000000000002</v>
       </c>
       <c r="K562" t="n">
-        <v>-9.090909090909175</v>
+        <v>13.20754716981135</v>
       </c>
       <c r="L562" t="n">
         <v>9.875999999999996</v>
@@ -29229,7 +29249,7 @@
         <v>18.84000000000002</v>
       </c>
       <c r="K563" t="n">
-        <v>11.82795698924725</v>
+        <v>49.20634920634909</v>
       </c>
       <c r="L563" t="n">
         <v>9.899999999999995</v>
@@ -29280,7 +29300,7 @@
         <v>18.84000000000002</v>
       </c>
       <c r="K564" t="n">
-        <v>11.82795698924725</v>
+        <v>43.85964912280699</v>
       </c>
       <c r="L564" t="n">
         <v>9.930999999999994</v>
@@ -29331,7 +29351,7 @@
         <v>18.94000000000003</v>
       </c>
       <c r="K565" t="n">
-        <v>0.9708737864077452</v>
+        <v>18.74999999999986</v>
       </c>
       <c r="L565" t="n">
         <v>9.945999999999994</v>
@@ -29382,7 +29402,7 @@
         <v>19.04000000000003</v>
       </c>
       <c r="K566" t="n">
-        <v>10.7142857142856</v>
+        <v>29.7297297297295</v>
       </c>
       <c r="L566" t="n">
         <v>9.967999999999995</v>
@@ -29433,7 +29453,7 @@
         <v>19.14000000000003</v>
       </c>
       <c r="K567" t="n">
-        <v>18.03278688524572</v>
+        <v>38.09523809523777</v>
       </c>
       <c r="L567" t="n">
         <v>9.999999999999996</v>
@@ -29484,7 +29504,7 @@
         <v>19.14000000000003</v>
       </c>
       <c r="K568" t="n">
-        <v>22.0338983050846</v>
+        <v>37.34939759036105</v>
       </c>
       <c r="L568" t="n">
         <v>10.032</v>
@@ -29535,7 +29555,7 @@
         <v>19.24000000000003</v>
       </c>
       <c r="K569" t="n">
-        <v>25.80645161290306</v>
+        <v>38.09523809523782</v>
       </c>
       <c r="L569" t="n">
         <v>10.073</v>
@@ -29586,7 +29606,7 @@
         <v>19.24000000000003</v>
       </c>
       <c r="K570" t="n">
-        <v>25.80645161290306</v>
+        <v>70.588235294117</v>
       </c>
       <c r="L570" t="n">
         <v>10.105</v>

--- a/BackTest/2019-11-02 BackTest MIX.xlsx
+++ b/BackTest/2019-11-02 BackTest MIX.xlsx
@@ -2446,20 +2446,14 @@
         <v>9.460833333333333</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>9.390000000000001</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2494,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2526,20 +2516,14 @@
         <v>9.458666666666666</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>9.43</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2574,11 +2558,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2613,11 +2593,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2652,11 +2628,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2691,11 +2663,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2730,11 +2698,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2769,11 +2733,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2808,11 +2768,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2847,11 +2803,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2886,11 +2838,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2925,11 +2873,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2964,11 +2908,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -2996,20 +2936,14 @@
         <v>9.448166666666671</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3037,20 +2971,14 @@
         <v>9.445833333333336</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3078,20 +3006,14 @@
         <v>9.444000000000004</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3119,20 +3041,14 @@
         <v>9.440666666666669</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>9.369999999999999</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3160,20 +3076,14 @@
         <v>9.439666666666671</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>9.369999999999999</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3201,20 +3111,14 @@
         <v>9.436333333333335</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>9.369999999999999</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3242,20 +3146,14 @@
         <v>9.433833333333336</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>9.44</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3283,20 +3181,14 @@
         <v>9.430833333333336</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3324,20 +3216,14 @@
         <v>9.429500000000001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3365,20 +3251,14 @@
         <v>9.428666666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3406,20 +3286,14 @@
         <v>9.427833333333332</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3447,20 +3321,14 @@
         <v>9.4255</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3488,20 +3356,14 @@
         <v>9.421666666666669</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>9.369999999999999</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3529,20 +3391,14 @@
         <v>9.4175</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>9.33</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3570,20 +3426,14 @@
         <v>9.415333333333335</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3611,20 +3461,14 @@
         <v>9.414166666666667</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3652,20 +3496,14 @@
         <v>9.411666666666667</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3693,20 +3531,14 @@
         <v>9.411833333333334</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3734,20 +3566,14 @@
         <v>9.412833333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3775,20 +3601,14 @@
         <v>9.411666666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>9.34</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3816,20 +3636,14 @@
         <v>9.411333333333333</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3857,20 +3671,14 @@
         <v>9.410833333333331</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3898,20 +3706,14 @@
         <v>9.410499999999997</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3939,20 +3741,14 @@
         <v>9.408333333333331</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3980,20 +3776,14 @@
         <v>9.408999999999997</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>9.300000000000001</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4021,20 +3811,14 @@
         <v>9.409333333333331</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4062,20 +3846,14 @@
         <v>9.409666666666663</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4103,20 +3881,14 @@
         <v>9.409166666666662</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4144,20 +3916,14 @@
         <v>9.408833333333328</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>9.44</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4185,20 +3951,14 @@
         <v>9.408333333333328</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>9.43</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4226,20 +3986,14 @@
         <v>9.407833333333325</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4267,20 +4021,14 @@
         <v>9.406666666666659</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>9.43</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4308,20 +4056,14 @@
         <v>9.406166666666657</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>9.43</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4349,20 +4091,14 @@
         <v>9.407499999999992</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>9.44</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4390,20 +4126,14 @@
         <v>9.406499999999991</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>9.43</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4438,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4470,20 +4196,14 @@
         <v>9.405499999999991</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>9.33</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4511,20 +4231,14 @@
         <v>9.403999999999991</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>9.300000000000001</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4552,20 +4266,14 @@
         <v>9.401333333333323</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>9.300000000000001</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4593,20 +4301,14 @@
         <v>9.398499999999988</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>9.289999999999999</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4634,20 +4336,14 @@
         <v>9.396833333333321</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4675,20 +4371,14 @@
         <v>9.396333333333322</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>9.369999999999999</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4716,20 +4406,14 @@
         <v>9.395999999999988</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4757,20 +4441,14 @@
         <v>9.395833333333321</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4798,20 +4476,14 @@
         <v>9.395666666666655</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4839,20 +4511,14 @@
         <v>9.394666666666655</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4880,20 +4546,14 @@
         <v>9.395166666666654</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>9.390000000000001</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4921,20 +4581,14 @@
         <v>9.394333333333321</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>9.390000000000001</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4962,20 +4616,14 @@
         <v>9.391166666666654</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>9.289999999999999</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5003,20 +4651,14 @@
         <v>9.387999999999986</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>9.26</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5044,20 +4686,14 @@
         <v>9.386166666666652</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>9.25</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5085,20 +4721,14 @@
         <v>9.384166666666653</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>9.25</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5126,20 +4756,14 @@
         <v>9.382166666666652</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>9.34</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5167,20 +4791,14 @@
         <v>9.380166666666652</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>9.33</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5208,20 +4826,14 @@
         <v>9.377166666666652</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>9.279999999999999</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5249,20 +4861,14 @@
         <v>9.375499999999985</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>9.27</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5290,20 +4896,14 @@
         <v>9.374999999999984</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>9.32</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5331,20 +4931,14 @@
         <v>9.375333333333318</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5372,20 +4966,14 @@
         <v>9.376999999999985</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5413,20 +5001,14 @@
         <v>9.377833333333319</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>9.460000000000001</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5454,20 +5036,14 @@
         <v>9.379499999999986</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>9.460000000000001</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5495,20 +5071,14 @@
         <v>9.38133333333332</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>9.460000000000001</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5536,20 +5106,14 @@
         <v>9.382666666666655</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>9.48</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5577,20 +5141,14 @@
         <v>9.383166666666654</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>9.48</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5618,20 +5176,14 @@
         <v>9.38333333333332</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5659,20 +5211,14 @@
         <v>9.38433333333332</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5700,20 +5246,14 @@
         <v>9.383833333333317</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>9.43</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5741,20 +5281,14 @@
         <v>9.383666666666651</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5782,20 +5316,14 @@
         <v>9.383166666666652</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>9.390000000000001</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5823,20 +5351,14 @@
         <v>9.382833333333318</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>9.390000000000001</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5864,20 +5386,14 @@
         <v>9.383166666666652</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>9.390000000000001</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5905,20 +5421,14 @@
         <v>9.383499999999986</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>9.43</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5946,20 +5456,14 @@
         <v>9.38466666666665</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5987,20 +5491,14 @@
         <v>9.38616666666665</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6028,20 +5526,14 @@
         <v>9.385499999999984</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>9.390000000000001</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6069,20 +5561,14 @@
         <v>9.385499999999984</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>9.369999999999999</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6110,20 +5596,14 @@
         <v>9.384833333333319</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>9.369999999999999</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6151,20 +5631,14 @@
         <v>9.384999999999986</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>9.390000000000001</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6192,20 +5666,14 @@
         <v>9.385166666666652</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6233,20 +5701,14 @@
         <v>9.387166666666651</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6274,20 +5736,14 @@
         <v>9.387666666666654</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6315,20 +5771,14 @@
         <v>9.388499999999988</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>9.460000000000001</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6356,20 +5806,14 @@
         <v>9.389166666666656</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>9.449999999999999</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6404,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6443,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6482,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6521,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6553,20 +5981,14 @@
         <v>9.392166666666661</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>9.44</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6601,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6640,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6679,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6718,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6757,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6796,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6835,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6874,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6913,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6991,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7030,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7069,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7108,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7147,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7186,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7225,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7264,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7303,11 +6653,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7342,11 +6688,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7420,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7459,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7498,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7537,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7576,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7615,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7654,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7693,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7732,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7771,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7849,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7888,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7927,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7966,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8005,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8044,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8083,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8122,11 +7388,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8161,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8200,11 +7458,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +7493,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8278,11 +7528,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8317,11 +7563,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8356,11 +7598,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8395,11 +7633,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8434,11 +7668,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8473,11 +7703,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8512,11 +7738,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8544,20 +7766,14 @@
         <v>9.473833333333339</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8592,11 +7808,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8631,11 +7843,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8670,11 +7878,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8709,11 +7913,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8748,11 +7948,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8780,20 +7976,14 @@
         <v>9.466833333333334</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>9.34</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8821,20 +8011,14 @@
         <v>9.465833333333332</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>9.33</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8862,20 +8046,14 @@
         <v>9.463833333333332</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>9.34</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8903,20 +8081,14 @@
         <v>9.462999999999999</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>9.31</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8944,20 +8116,14 @@
         <v>9.461166666666665</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>9.34</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8985,20 +8151,14 @@
         <v>9.461</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>9.34</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9037,7 +8197,7 @@
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M223" t="n">
@@ -9073,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>9.380000000000001</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
@@ -9114,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="n">
-        <v>9.460000000000001</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
@@ -9155,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>9.41</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
@@ -9196,7 +8356,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>9.42</v>
+        <v>9.4</v>
       </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
@@ -9237,7 +8397,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="n">
-        <v>9.4</v>
+        <v>9.42</v>
       </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
@@ -9278,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="n">
-        <v>9.43</v>
+        <v>9.4</v>
       </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
@@ -9313,14 +8473,12 @@
         <v>9.455333333333328</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>9.43</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
@@ -9354,14 +8512,12 @@
         <v>9.453166666666663</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
@@ -9395,14 +8551,12 @@
         <v>9.452999999999996</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
@@ -9436,14 +8590,12 @@
         <v>9.450999999999995</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
@@ -9477,14 +8629,12 @@
         <v>9.449333333333328</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>9.35</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
@@ -9518,14 +8668,12 @@
         <v>9.446499999999995</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
@@ -9559,14 +8707,12 @@
         <v>9.445999999999994</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
@@ -9600,14 +8746,12 @@
         <v>9.443166666666661</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
@@ -9641,14 +8785,12 @@
         <v>9.439999999999994</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
@@ -9682,14 +8824,12 @@
         <v>9.435833333333328</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
@@ -9723,14 +8863,12 @@
         <v>9.432833333333326</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
@@ -9764,14 +8902,12 @@
         <v>9.428833333333326</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
@@ -9805,14 +8941,12 @@
         <v>9.425833333333324</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
@@ -9846,14 +8980,12 @@
         <v>9.423166666666656</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
@@ -9887,14 +9019,12 @@
         <v>9.419999999999989</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
@@ -9928,14 +9058,12 @@
         <v>9.417333333333321</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
@@ -9969,14 +9097,12 @@
         <v>9.418166666666654</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
@@ -10010,14 +9136,12 @@
         <v>9.415999999999988</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>9.41</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
@@ -10051,14 +9175,12 @@
         <v>9.413499999999988</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
@@ -10092,14 +9214,12 @@
         <v>9.411333333333321</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>9.34</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
@@ -10133,14 +9253,12 @@
         <v>9.409833333333321</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
@@ -10174,14 +9292,12 @@
         <v>9.408499999999988</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>9.34</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
@@ -10215,14 +9331,12 @@
         <v>9.406833333333321</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
@@ -10256,14 +9370,12 @@
         <v>9.405833333333321</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
@@ -10297,14 +9409,12 @@
         <v>9.403999999999987</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>9.35</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
@@ -10338,14 +9448,12 @@
         <v>9.403499999999985</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
@@ -10379,14 +9487,12 @@
         <v>9.402166666666652</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>9.380000000000001</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
@@ -10420,14 +9526,12 @@
         <v>9.401166666666652</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>9.369999999999999</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
@@ -10461,14 +9565,12 @@
         <v>9.400166666666653</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
@@ -10502,14 +9604,12 @@
         <v>9.39633333333332</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
@@ -10543,14 +9643,12 @@
         <v>9.393499999999987</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>9.369999999999999</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
@@ -10584,14 +9682,12 @@
         <v>9.39133333333332</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>9.359999999999999</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
@@ -10625,14 +9721,12 @@
         <v>9.390999999999986</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>9.35</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
@@ -10666,14 +9760,12 @@
         <v>9.391166666666653</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>9.42</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
@@ -10707,14 +9799,12 @@
         <v>9.389666666666653</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>9.43</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
@@ -10748,14 +9838,12 @@
         <v>9.390666666666654</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>9.460000000000001</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
@@ -10789,14 +9877,12 @@
         <v>9.391666666666655</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>9.460000000000001</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
@@ -10830,14 +9916,12 @@
         <v>9.394666666666657</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>9.470000000000001</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
@@ -10871,14 +9955,12 @@
         <v>9.398833333333323</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>9.57</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>

--- a/BackTest/2019-11-02 BackTest MIX.xlsx
+++ b/BackTest/2019-11-02 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1368870.8707876</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-1368870.8707876</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>9.029999999999999</v>
@@ -521,7 +521,7 @@
         <v>-1361213.2328876</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>9.029999999999999</v>
@@ -562,7 +562,7 @@
         <v>-1369746.2328876</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>9.06</v>
@@ -603,7 +603,7 @@
         <v>-1422389.0265876</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>9.050000000000001</v>
@@ -644,7 +644,7 @@
         <v>-1422389.0265876</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>9.02</v>
@@ -685,7 +685,7 @@
         <v>-1478536.5149876</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>9.02</v>
@@ -726,7 +726,7 @@
         <v>-1384768.404036609</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>9</v>
@@ -767,7 +767,7 @@
         <v>-1384768.404036609</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>9.08</v>
@@ -808,7 +808,7 @@
         <v>-1379291.952777025</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>9.08</v>
@@ -849,7 +849,7 @@
         <v>-1379291.952777025</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>9.130000000000001</v>
@@ -890,7 +890,7 @@
         <v>-1272610.859977025</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>9.130000000000001</v>
@@ -931,7 +931,7 @@
         <v>-1272610.859977025</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>9.15</v>
@@ -972,7 +972,7 @@
         <v>-1273544.627577025</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>9.15</v>
@@ -1013,7 +1013,7 @@
         <v>-1273544.627577025</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>9.130000000000001</v>
@@ -1054,9 +1054,11 @@
         <v>-1267227.155477025</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.130000000000001</v>
+      </c>
       <c r="J17" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>-1267227.155477025</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>9.15</v>
@@ -1134,7 +1136,7 @@
         <v>-1267227.155477025</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>9.15</v>
@@ -1175,7 +1177,7 @@
         <v>-1267590.155477025</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>9.15</v>
@@ -1216,7 +1218,7 @@
         <v>-1488234.391577025</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>9.140000000000001</v>
@@ -1257,7 +1259,7 @@
         <v>-1406472.637777025</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>9.029999999999999</v>
@@ -1298,7 +1300,7 @@
         <v>-1421868.743877025</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>9.07</v>
@@ -1339,9 +1341,11 @@
         <v>-2123158.689077025</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9.06</v>
+      </c>
       <c r="J24" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1378,9 +1382,11 @@
         <v>-2235675.703277025</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9.02</v>
+      </c>
       <c r="J25" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1417,7 +1423,7 @@
         <v>-2235675.703277025</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>9.01</v>
@@ -1458,7 +1464,7 @@
         <v>-2111246.935477025</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>9.01</v>
@@ -1499,7 +1505,7 @@
         <v>-2061052.675577025</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>9.029999999999999</v>
@@ -1540,7 +1546,7 @@
         <v>-2056052.675577025</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>9.119999999999999</v>
@@ -1581,7 +1587,7 @@
         <v>-2323176.266577025</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>9.130000000000001</v>
@@ -1622,7 +1628,7 @@
         <v>-2207452.739077025</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>9.01</v>
@@ -1663,7 +1669,7 @@
         <v>-2119236.948277025</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>9.109999999999999</v>
@@ -1704,9 +1710,11 @@
         <v>-2119236.948277025</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9.23</v>
+      </c>
       <c r="J33" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1743,9 +1751,11 @@
         <v>-2119236.948277025</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9.23</v>
+      </c>
       <c r="J34" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -18630,7 +18640,7 @@
         <v>3014842.928046281</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
@@ -18638,15 +18648,13 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L467" t="n">
-        <v>1.062552602436324</v>
-      </c>
-      <c r="M467" t="n">
-        <v>1.001107419712071</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -18674,8 +18682,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18707,8 +18721,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18737,11 +18757,17 @@
         <v>2993645.19044628</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18773,8 +18799,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18806,8 +18838,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18839,8 +18877,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18872,8 +18916,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18905,8 +18955,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18938,8 +18994,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18971,8 +19033,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19004,8 +19072,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19037,8 +19111,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19070,8 +19150,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19103,8 +19189,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19136,8 +19228,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19169,8 +19267,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19202,8 +19306,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19235,8 +19345,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19268,8 +19384,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19301,8 +19423,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19334,8 +19462,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19367,8 +19501,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19400,8 +19540,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19430,11 +19576,17 @@
         <v>4200502.688701261</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19463,11 +19615,17 @@
         <v>3213903.295401261</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19496,11 +19654,17 @@
         <v>3757560.109001261</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19529,11 +19693,17 @@
         <v>4974187.161910987</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19562,11 +19732,17 @@
         <v>8168128.551210987</v>
       </c>
       <c r="H495" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19595,11 +19771,17 @@
         <v>11511282.96819334</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19628,11 +19810,17 @@
         <v>11511282.96819334</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19661,11 +19849,17 @@
         <v>9423415.836491536</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19694,11 +19888,17 @@
         <v>9423415.836491536</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19727,11 +19927,17 @@
         <v>10829567.11069154</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19760,11 +19966,17 @@
         <v>11741971.18469154</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -19793,11 +20005,17 @@
         <v>10982047.06759154</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19829,8 +20047,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19862,8 +20086,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -19895,8 +20125,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -19928,8 +20164,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -19961,8 +20203,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -19994,8 +20242,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20027,8 +20281,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20060,8 +20320,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20093,8 +20359,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20123,11 +20395,17 @@
         <v>15596358.70682291</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20156,11 +20434,17 @@
         <v>15421542.21252291</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20192,8 +20476,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20222,11 +20512,17 @@
         <v>14029700.01022291</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20258,8 +20554,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20288,11 +20590,17 @@
         <v>12650415.34205162</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20321,11 +20629,17 @@
         <v>12650415.34205162</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20354,11 +20668,17 @@
         <v>13509384.3338536</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20387,11 +20707,17 @@
         <v>13231677.81996733</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20420,11 +20746,17 @@
         <v>13231677.81996733</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20453,11 +20785,17 @@
         <v>14277592.68198105</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20486,11 +20824,17 @@
         <v>13791676.65559478</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20519,11 +20863,17 @@
         <v>13791676.65559478</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20552,11 +20902,17 @@
         <v>14296337.11590851</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20588,8 +20944,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20621,8 +20983,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -20654,8 +21022,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -20687,8 +21061,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -20720,8 +21100,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -20753,8 +21139,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -20783,11 +21175,17 @@
         <v>15284176.9213085</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -20819,8 +21217,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -20849,15 +21253,23 @@
         <v>15039273.1713085</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L534" t="n">
-        <v>1</v>
-      </c>
-      <c r="M534" t="inlineStr"/>
+        <v>1.14671650055371</v>
+      </c>
+      <c r="M534" t="n">
+        <v>1.001107419712071</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -20882,7 +21294,7 @@
         <v>15039273.1713085</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20915,7 +21327,7 @@
         <v>14434958.87127773</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -21014,7 +21426,7 @@
         <v>13077226.51047773</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -21080,7 +21492,7 @@
         <v>13081633.11487773</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -21113,7 +21525,7 @@
         <v>13114519.29467773</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21146,7 +21558,7 @@
         <v>13114519.29467773</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -21179,7 +21591,7 @@
         <v>12968749.20047773</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21212,7 +21624,7 @@
         <v>13243799.39277773</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -21245,7 +21657,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -21278,7 +21690,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -21311,7 +21723,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -21344,7 +21756,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -21377,7 +21789,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21410,7 +21822,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21443,7 +21855,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21476,7 +21888,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21509,7 +21921,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21542,7 +21954,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21575,7 +21987,7 @@
         <v>13032964.85367773</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -21608,7 +22020,7 @@
         <v>13032964.85367773</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21641,7 +22053,7 @@
         <v>10796011.66977773</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21674,7 +22086,7 @@
         <v>10609361.08667773</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21707,7 +22119,7 @@
         <v>10911626.49847773</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21740,7 +22152,7 @@
         <v>10430363.99877773</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21773,7 +22185,7 @@
         <v>10430363.99877773</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21806,7 +22218,7 @@
         <v>10833249.11017773</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21839,7 +22251,7 @@
         <v>10171687.13747774</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -22004,7 +22416,7 @@
         <v>9844196.913277734</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -22037,7 +22449,7 @@
         <v>9844196.913277734</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -22070,7 +22482,7 @@
         <v>9376801.947077734</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -22103,7 +22515,7 @@
         <v>9376801.947077734</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22136,7 +22548,7 @@
         <v>9376801.947077734</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22169,7 +22581,7 @@
         <v>9138051.959277734</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22202,7 +22614,7 @@
         <v>8867184.950077735</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22235,7 +22647,7 @@
         <v>9228620.923177734</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22268,7 +22680,7 @@
         <v>8870101.695877735</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22301,7 +22713,7 @@
         <v>8975546.222477734</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22334,7 +22746,7 @@
         <v>7641715.320677734</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22367,7 +22779,7 @@
         <v>8378836.748677734</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22400,7 +22812,7 @@
         <v>7951010.526777734</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22433,7 +22845,7 @@
         <v>7950989.526777734</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -22466,7 +22878,7 @@
         <v>7951030.526777734</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -23632,6 +24044,6 @@
       <c r="M618" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest MIX.xlsx
+++ b/BackTest/2019-11-02 BackTest MIX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -972,11 +972,9 @@
         <v>-1273544.627577025</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>9.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1013,11 +1011,9 @@
         <v>-1273544.627577025</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9.130000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1054,11 +1050,9 @@
         <v>-1267227.155477025</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9.130000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1136,11 +1130,9 @@
         <v>-1267227.155477025</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>9.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1177,11 +1169,9 @@
         <v>-1267590.155477025</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1218,11 +1208,9 @@
         <v>-1488234.391577025</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9.140000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1710,11 +1698,9 @@
         <v>-2119236.948277025</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1751,11 +1737,9 @@
         <v>-2119236.948277025</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>9.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -2416,7 +2400,7 @@
         <v>3207307.321922975</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
@@ -2424,13 +2408,15 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>1.060337763012182</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.001107419712071</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2455,17 +2441,11 @@
         <v>4025890.828622975</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2494,17 +2474,11 @@
         <v>4247492.030022975</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2533,17 +2507,11 @@
         <v>3923938.420722975</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2572,17 +2540,11 @@
         <v>3923938.420722975</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2611,17 +2573,11 @@
         <v>3873413.456822975</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2650,17 +2606,11 @@
         <v>3873413.456822975</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2689,17 +2639,11 @@
         <v>3868413.456822975</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2728,17 +2672,11 @@
         <v>4572028.341022975</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2767,17 +2705,11 @@
         <v>4567557.048522974</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2806,17 +2738,11 @@
         <v>4567568.048522974</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2845,17 +2771,11 @@
         <v>4567568.048522974</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2884,17 +2804,11 @@
         <v>4567568.048522974</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2923,17 +2837,11 @@
         <v>4564417.138022974</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2962,17 +2870,11 @@
         <v>4418752.144222974</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3001,17 +2903,11 @@
         <v>4380751.935822974</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3040,17 +2936,11 @@
         <v>4389797.189422974</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3079,17 +2969,11 @@
         <v>4389757.239422974</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3118,17 +3002,11 @@
         <v>4340492.425522974</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3157,17 +3035,11 @@
         <v>4340503.425522974</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3196,17 +3068,11 @@
         <v>4427217.628122974</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3235,17 +3101,11 @@
         <v>4429060.762422974</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3274,17 +3134,11 @@
         <v>5091344.005222974</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3313,17 +3167,11 @@
         <v>4983444.149622974</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3352,17 +3200,11 @@
         <v>5449439.576022974</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3391,17 +3233,11 @@
         <v>5443937.991222974</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3430,17 +3266,11 @@
         <v>5684907.521703225</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3469,17 +3299,11 @@
         <v>5796115.973022974</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3508,17 +3332,11 @@
         <v>5796115.973022974</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3547,17 +3365,11 @@
         <v>5715311.684422974</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3586,17 +3398,11 @@
         <v>5304864.609822975</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3625,17 +3431,11 @@
         <v>5304864.609822975</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3664,17 +3464,11 @@
         <v>5360206.360622974</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3703,17 +3497,11 @@
         <v>5526012.085922974</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3745,14 +3533,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3784,14 +3566,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3823,14 +3599,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3862,14 +3632,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3901,14 +3665,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3940,14 +3698,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3979,14 +3731,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4018,14 +3764,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4057,14 +3797,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4096,14 +3830,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4135,14 +3863,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4174,14 +3896,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4213,14 +3929,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4252,14 +3962,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4291,14 +3995,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4330,14 +4028,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4369,14 +4061,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4408,14 +4094,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4447,14 +4127,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4486,14 +4160,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4525,14 +4193,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4564,14 +4226,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4603,14 +4259,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4642,14 +4292,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4681,14 +4325,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4720,14 +4358,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4759,14 +4391,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4798,14 +4424,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4837,14 +4457,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4876,14 +4490,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4915,14 +4523,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4954,14 +4556,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4993,14 +4589,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5032,14 +4622,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5071,14 +4655,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5110,14 +4688,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5149,14 +4721,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5188,14 +4754,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5227,14 +4787,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5266,14 +4820,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5305,14 +4853,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5344,14 +4886,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5383,14 +4919,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5422,14 +4952,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5461,14 +4985,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5500,14 +5018,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5539,14 +5051,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5578,14 +5084,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5617,14 +5117,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5656,14 +5150,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5695,14 +5183,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5734,14 +5216,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5773,14 +5249,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5812,14 +5282,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5851,14 +5315,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5890,14 +5348,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5929,14 +5381,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5968,14 +5414,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6007,14 +5447,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6046,14 +5480,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6085,14 +5513,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6124,14 +5546,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6163,14 +5579,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6202,14 +5612,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6241,14 +5645,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6280,14 +5678,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6319,14 +5711,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6358,14 +5744,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6397,14 +5777,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6436,14 +5810,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6475,14 +5843,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6514,14 +5876,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6553,14 +5909,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6592,14 +5942,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6631,14 +5975,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6670,14 +6008,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6709,14 +6041,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6748,14 +6074,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6787,14 +6107,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6826,14 +6140,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6865,14 +6173,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6904,14 +6206,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6943,14 +6239,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6982,14 +6272,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7021,14 +6305,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7060,14 +6338,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7099,14 +6371,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7138,14 +6404,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7177,14 +6437,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7216,14 +6470,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7255,14 +6503,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7294,14 +6536,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7333,14 +6569,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7372,14 +6602,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7411,14 +6635,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7450,14 +6668,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7489,14 +6701,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7528,14 +6734,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7567,14 +6767,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7606,14 +6800,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7645,14 +6833,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7684,14 +6866,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7723,14 +6899,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7762,14 +6932,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7801,14 +6965,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7840,14 +6998,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7879,14 +7031,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7918,14 +7064,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7957,14 +7097,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7996,14 +7130,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8035,14 +7163,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8074,14 +7196,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8113,14 +7229,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8152,14 +7262,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8191,14 +7295,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8230,14 +7328,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8269,14 +7361,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8308,14 +7394,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8347,14 +7427,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8386,14 +7460,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8425,14 +7493,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8464,14 +7526,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8503,14 +7559,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8542,14 +7592,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8581,14 +7625,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8620,14 +7658,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8659,14 +7691,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8698,14 +7724,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8737,14 +7757,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8776,14 +7790,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8815,14 +7823,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8854,14 +7856,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8893,14 +7889,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8932,14 +7922,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8971,14 +7955,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9010,14 +7988,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9049,14 +8021,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9088,14 +8054,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9127,14 +8087,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9166,14 +8120,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9205,14 +8153,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9244,14 +8186,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9283,14 +8219,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9322,14 +8252,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9361,14 +8285,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9400,14 +8318,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9439,14 +8351,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9478,14 +8384,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9517,14 +8417,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9556,14 +8450,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9595,14 +8483,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9634,14 +8516,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9673,14 +8549,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9712,14 +8582,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9751,14 +8615,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9790,14 +8648,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9829,14 +8681,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9868,14 +8714,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9907,14 +8747,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9946,14 +8780,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9985,14 +8813,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10024,14 +8846,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10063,14 +8879,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10102,14 +8912,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10141,14 +8945,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10180,14 +8978,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10219,14 +9011,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10258,14 +9044,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10297,14 +9077,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10336,14 +9110,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10375,14 +9143,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10414,14 +9176,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10453,14 +9209,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10492,14 +9242,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10531,14 +9275,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10570,14 +9308,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10609,14 +9341,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10648,14 +9374,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10687,14 +9407,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10726,14 +9440,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10765,14 +9473,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10804,14 +9506,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10843,14 +9539,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10882,14 +9572,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10921,14 +9605,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10960,14 +9638,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10999,14 +9671,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11038,14 +9704,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11077,14 +9737,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11116,14 +9770,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11155,14 +9803,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11194,14 +9836,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11233,14 +9869,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11272,14 +9902,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11311,14 +9935,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11350,14 +9968,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11389,14 +10001,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11428,14 +10034,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11467,14 +10067,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11506,14 +10100,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11545,14 +10133,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11584,14 +10166,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11623,14 +10199,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11662,14 +10232,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11701,14 +10265,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11740,14 +10298,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11779,14 +10331,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11818,14 +10364,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11857,14 +10397,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11896,14 +10430,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11935,14 +10463,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11974,14 +10496,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12013,14 +10529,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12052,14 +10562,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12091,14 +10595,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12130,14 +10628,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12169,14 +10661,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12208,14 +10694,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12247,14 +10727,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12286,14 +10760,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12325,14 +10793,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12364,14 +10826,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12403,14 +10859,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12442,14 +10892,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12481,14 +10925,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12520,14 +10958,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12559,14 +10991,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12598,14 +11024,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12637,14 +11057,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12676,14 +11090,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12715,14 +11123,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12754,14 +11156,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12793,14 +11189,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12832,14 +11222,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12871,14 +11255,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12910,14 +11288,8 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12949,14 +11321,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12988,14 +11354,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13027,14 +11387,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13066,14 +11420,8 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13105,14 +11453,8 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13144,14 +11486,8 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13183,14 +11519,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13222,14 +11552,8 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13261,14 +11585,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13300,14 +11618,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13339,14 +11651,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13378,14 +11684,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13417,14 +11717,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13456,14 +11750,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13495,14 +11783,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13534,14 +11816,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13573,14 +11849,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13612,14 +11882,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13651,14 +11915,8 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13690,14 +11948,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13729,14 +11981,8 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13768,14 +12014,8 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13807,14 +12047,8 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13846,14 +12080,8 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13885,14 +12113,8 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13924,14 +12146,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13963,14 +12179,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14002,14 +12212,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14041,14 +12245,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14080,14 +12278,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14116,17 +12308,11 @@
         <v>2662825.892137602</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14155,17 +12341,11 @@
         <v>2540330.228737602</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14194,17 +12374,11 @@
         <v>2563330.228737602</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14233,17 +12407,11 @@
         <v>2552079.866137601</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14272,17 +12440,11 @@
         <v>2525139.658937601</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14311,17 +12473,11 @@
         <v>2525139.658937601</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14350,17 +12506,11 @@
         <v>2625295.928337601</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14389,17 +12539,11 @@
         <v>2566598.273937602</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14428,17 +12572,11 @@
         <v>3003470.32636255</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14467,17 +12605,11 @@
         <v>3003470.32636255</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14506,17 +12638,11 @@
         <v>3001992.21166255</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14545,17 +12671,11 @@
         <v>3001992.21166255</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14584,17 +12704,11 @@
         <v>3001992.21166255</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14623,17 +12737,11 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14662,17 +12770,11 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14701,17 +12803,11 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14740,17 +12836,11 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14779,17 +12869,11 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14818,17 +12902,11 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14857,17 +12935,11 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14896,17 +12968,11 @@
         <v>3115463.34994628</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14935,17 +13001,11 @@
         <v>3073373.73984628</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14974,17 +13034,11 @@
         <v>3092373.73984628</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15016,14 +13070,8 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -15055,14 +13103,8 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -15094,14 +13136,8 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -15133,14 +13169,8 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -15172,14 +13202,8 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -15211,14 +13235,8 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -15250,14 +13268,8 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -15289,14 +13301,8 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -15328,14 +13334,8 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -15367,14 +13367,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -15406,14 +13400,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -15445,14 +13433,8 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -15484,14 +13466,8 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -15523,14 +13499,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15562,14 +13532,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15601,14 +13565,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15640,14 +13598,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15679,14 +13631,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15718,14 +13664,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15757,14 +13697,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15796,14 +13730,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15835,14 +13763,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15874,14 +13796,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15913,14 +13829,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15952,14 +13862,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15991,14 +13895,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16030,14 +13928,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16069,14 +13961,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16108,14 +13994,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16147,14 +14027,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16186,14 +14060,8 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -16225,14 +14093,8 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16264,14 +14126,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16303,14 +14159,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16342,14 +14192,8 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16381,14 +14225,8 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16420,14 +14258,8 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -16459,14 +14291,8 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -16498,14 +14324,8 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -16537,14 +14357,8 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -16576,14 +14390,8 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -16615,14 +14423,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -16654,14 +14456,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -16693,14 +14489,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -16732,14 +14522,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -16771,14 +14555,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -16810,14 +14588,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -16849,14 +14621,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16888,14 +14654,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16927,14 +14687,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16966,14 +14720,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17005,14 +14753,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17044,14 +14786,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17083,14 +14819,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17122,14 +14852,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17161,14 +14885,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17200,14 +14918,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17239,14 +14951,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17278,14 +14984,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17317,14 +15017,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17356,14 +15050,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17395,14 +15083,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -17434,14 +15116,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -17473,14 +15149,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -17512,14 +15182,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -17551,14 +15215,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -17590,14 +15248,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -17629,14 +15281,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -17668,14 +15314,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -17707,14 +15347,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -17746,14 +15380,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -17785,14 +15413,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -17824,14 +15446,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -17863,14 +15479,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -17902,14 +15512,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17941,14 +15545,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17980,14 +15578,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -18019,14 +15611,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -18058,14 +15644,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -18097,14 +15677,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -18136,14 +15710,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -18175,14 +15743,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -18214,14 +15776,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -18253,14 +15809,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -18292,14 +15842,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -18331,14 +15875,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -18370,14 +15908,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -18409,14 +15941,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -18448,14 +15974,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -18487,14 +16007,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -18526,14 +16040,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -18565,14 +16073,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -18604,14 +16106,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -18643,14 +16139,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -18682,14 +16172,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -18721,14 +16205,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -18760,14 +16238,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -18799,14 +16271,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -18838,14 +16304,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -18877,14 +16337,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -18916,14 +16370,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -18955,14 +16403,8 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18994,14 +16436,8 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -19033,14 +16469,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -19072,14 +16502,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -19111,14 +16535,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -19150,14 +16568,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -19189,14 +16601,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -19228,14 +16634,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -19267,14 +16667,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -19306,14 +16700,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -19342,17 +16730,11 @@
         <v>1668430.10524628</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -19381,17 +16763,11 @@
         <v>1668430.10524628</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -19420,17 +16796,11 @@
         <v>2422714.163246281</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -19459,17 +16829,11 @@
         <v>2860362.637235522</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -19498,17 +16862,11 @@
         <v>3351170.745330125</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -19537,17 +16895,11 @@
         <v>4665332.085536554</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -19576,17 +16928,11 @@
         <v>4200502.688701261</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -19615,17 +16961,11 @@
         <v>3213903.295401261</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -19654,17 +16994,11 @@
         <v>3757560.109001261</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -19693,17 +17027,11 @@
         <v>4974187.161910987</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -19732,17 +17060,11 @@
         <v>8168128.551210987</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -19774,14 +17096,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -19813,14 +17129,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -19852,14 +17162,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -19891,14 +17195,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -19930,14 +17228,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -19969,14 +17261,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -20008,14 +17294,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -20047,14 +17327,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -20086,14 +17360,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -20125,14 +17393,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -20164,14 +17426,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -20203,14 +17459,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -20242,14 +17492,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -20281,14 +17525,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -20320,14 +17558,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -20359,14 +17591,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -20398,14 +17624,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -20437,14 +17657,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -20476,14 +17690,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -20515,14 +17723,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -20554,14 +17756,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -20593,14 +17789,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -20632,14 +17822,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -20671,14 +17855,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -20710,14 +17888,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -20749,14 +17921,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -20788,14 +17954,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -20827,14 +17987,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -20866,14 +18020,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -20905,14 +18053,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -20944,14 +18086,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -20983,14 +18119,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -21022,14 +18152,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -21061,14 +18185,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -21100,14 +18218,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -21139,14 +18251,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -21178,14 +18284,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -21217,14 +18317,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -21253,23 +18347,15 @@
         <v>15039273.1713085</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
-        <v>1.14671650055371</v>
-      </c>
-      <c r="M534" t="n">
-        <v>1.001107419712071</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -21294,7 +18380,7 @@
         <v>15039273.1713085</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -21327,7 +18413,7 @@
         <v>14434958.87127773</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -21426,7 +18512,7 @@
         <v>13077226.51047773</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -21525,7 +18611,7 @@
         <v>13114519.29467773</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -21591,7 +18677,7 @@
         <v>12968749.20047773</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21624,7 +18710,7 @@
         <v>13243799.39277773</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -21657,7 +18743,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -21690,7 +18776,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -21723,7 +18809,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -21756,7 +18842,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -21789,7 +18875,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -21822,7 +18908,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -21855,7 +18941,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -21888,7 +18974,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -21921,7 +19007,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -21954,7 +19040,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -21987,7 +19073,7 @@
         <v>13032964.85367773</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -22020,7 +19106,7 @@
         <v>13032964.85367773</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -22053,7 +19139,7 @@
         <v>10796011.66977773</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -22086,7 +19172,7 @@
         <v>10609361.08667773</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -22119,7 +19205,7 @@
         <v>10911626.49847773</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -22152,7 +19238,7 @@
         <v>10430363.99877773</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -22416,7 +19502,7 @@
         <v>9844196.913277734</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -22449,7 +19535,7 @@
         <v>9844196.913277734</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -22482,7 +19568,7 @@
         <v>9376801.947077734</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -22515,7 +19601,7 @@
         <v>9376801.947077734</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -22548,7 +19634,7 @@
         <v>9376801.947077734</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -22581,7 +19667,7 @@
         <v>9138051.959277734</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -22614,7 +19700,7 @@
         <v>8867184.950077735</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -22647,7 +19733,7 @@
         <v>9228620.923177734</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22680,7 +19766,7 @@
         <v>8870101.695877735</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -22713,7 +19799,7 @@
         <v>8975546.222477734</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -22746,7 +19832,7 @@
         <v>7641715.320677734</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -22779,7 +19865,7 @@
         <v>8378836.748677734</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -22812,7 +19898,7 @@
         <v>7951010.526777734</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22845,7 +19931,7 @@
         <v>7950989.526777734</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -24044,6 +21130,6 @@
       <c r="M618" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest MIX.xlsx
+++ b/BackTest/2019-11-02 BackTest MIX.xlsx
@@ -972,9 +972,11 @@
         <v>-1273544.627577025</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>9.15</v>
+      </c>
       <c r="J15" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1089,11 +1091,9 @@
         <v>-1267227.155477025</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1247,11 +1247,9 @@
         <v>-1406472.637777025</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9.029999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1288,11 +1286,9 @@
         <v>-1421868.743877025</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>9.07</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1329,11 +1325,9 @@
         <v>-2123158.689077025</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -1370,11 +1364,9 @@
         <v>-2235675.703277025</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>9.02</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>9.029999999999999</v>
       </c>
@@ -2400,7 +2392,7 @@
         <v>3207307.321922975</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
@@ -2408,15 +2400,13 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.060337763012182</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.001107419712071</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2441,11 +2431,17 @@
         <v>4025890.828622975</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2474,11 +2470,17 @@
         <v>4247492.030022975</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2507,11 +2509,17 @@
         <v>3923938.420722975</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2540,11 +2548,17 @@
         <v>3923938.420722975</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2573,11 +2587,17 @@
         <v>3873413.456822975</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2606,11 +2626,17 @@
         <v>3873413.456822975</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2639,11 +2665,17 @@
         <v>3868413.456822975</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2672,11 +2704,17 @@
         <v>4572028.341022975</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2705,11 +2743,17 @@
         <v>4567557.048522974</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2738,11 +2782,17 @@
         <v>4567568.048522974</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2771,11 +2821,17 @@
         <v>4567568.048522974</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2804,11 +2860,17 @@
         <v>4567568.048522974</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2837,11 +2899,17 @@
         <v>4564417.138022974</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2870,11 +2938,17 @@
         <v>4418752.144222974</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2903,11 +2977,17 @@
         <v>4380751.935822974</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2936,11 +3016,17 @@
         <v>4389797.189422974</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2969,11 +3055,17 @@
         <v>4389757.239422974</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3002,11 +3094,17 @@
         <v>4340492.425522974</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3035,11 +3133,17 @@
         <v>4340503.425522974</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3068,11 +3172,17 @@
         <v>4427217.628122974</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3101,11 +3211,17 @@
         <v>4429060.762422974</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3134,11 +3250,17 @@
         <v>5091344.005222974</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3167,11 +3289,17 @@
         <v>4983444.149622974</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3200,11 +3328,17 @@
         <v>5449439.576022974</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3233,11 +3367,17 @@
         <v>5443937.991222974</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3266,11 +3406,17 @@
         <v>5684907.521703225</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3299,11 +3445,17 @@
         <v>5796115.973022974</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3332,11 +3484,17 @@
         <v>5796115.973022974</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3365,11 +3523,17 @@
         <v>5715311.684422974</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3398,11 +3562,17 @@
         <v>5304864.609822975</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3431,11 +3601,17 @@
         <v>5304864.609822975</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3464,11 +3640,17 @@
         <v>5360206.360622974</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3497,11 +3679,17 @@
         <v>5526012.085922974</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3533,8 +3721,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3566,8 +3760,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3599,8 +3799,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3632,8 +3838,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3665,8 +3877,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3698,8 +3916,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3731,8 +3955,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3764,8 +3994,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3797,8 +4033,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3830,8 +4072,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3863,8 +4111,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3896,8 +4150,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3929,8 +4189,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3962,8 +4228,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3995,8 +4267,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4028,8 +4306,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4061,8 +4345,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4094,8 +4384,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4127,8 +4423,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4160,8 +4462,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4193,8 +4501,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4226,8 +4540,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4259,8 +4579,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4292,8 +4618,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4325,8 +4657,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4358,8 +4696,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4391,8 +4735,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4424,8 +4774,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4457,8 +4813,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4490,8 +4852,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4523,8 +4891,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4556,8 +4930,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4589,8 +4969,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4622,8 +5008,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4655,8 +5047,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4688,8 +5086,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4721,8 +5125,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4754,8 +5164,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4787,8 +5203,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4820,8 +5242,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4853,8 +5281,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4886,8 +5320,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4919,8 +5359,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4952,8 +5398,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4985,8 +5437,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5018,8 +5476,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5051,8 +5515,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5084,8 +5554,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5117,8 +5593,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5150,8 +5632,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5183,8 +5671,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5216,8 +5710,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5249,8 +5749,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5282,8 +5788,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5315,8 +5827,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5348,8 +5866,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5381,8 +5905,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5414,8 +5944,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5447,8 +5983,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5480,8 +6022,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5513,8 +6061,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5546,8 +6100,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5579,8 +6139,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5612,8 +6178,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5645,8 +6217,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5678,8 +6256,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5711,8 +6295,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5744,8 +6334,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5777,8 +6373,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5810,8 +6412,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5843,8 +6451,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5876,8 +6490,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5909,8 +6529,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5942,8 +6568,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5975,8 +6607,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6008,8 +6646,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6041,8 +6685,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6074,8 +6724,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6107,8 +6763,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6140,8 +6802,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6173,8 +6841,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6206,8 +6880,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6239,8 +6919,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6272,8 +6958,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6305,8 +6997,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6338,8 +7036,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6371,8 +7075,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6404,8 +7114,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6437,8 +7153,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6470,8 +7192,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6503,8 +7231,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6536,8 +7270,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6569,8 +7309,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6602,8 +7348,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6635,8 +7387,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6668,8 +7426,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6701,8 +7465,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6734,8 +7504,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6767,8 +7543,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6800,8 +7582,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6833,8 +7621,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6866,8 +7660,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6899,8 +7699,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6932,8 +7738,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6965,8 +7777,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6998,8 +7816,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7031,8 +7855,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7064,8 +7894,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7097,8 +7933,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7130,8 +7972,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7163,8 +8011,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7196,8 +8050,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7229,8 +8089,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7262,8 +8128,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7295,8 +8167,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7328,8 +8206,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7361,8 +8245,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7394,8 +8284,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7427,8 +8323,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7460,8 +8362,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7493,8 +8401,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7526,8 +8440,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7559,8 +8479,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7592,8 +8518,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7625,8 +8557,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7658,8 +8596,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7691,8 +8635,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7724,8 +8674,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7757,8 +8713,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7790,8 +8752,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7823,8 +8791,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7856,8 +8830,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7889,8 +8869,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7922,8 +8908,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7955,8 +8947,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7988,8 +8986,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8021,8 +9025,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8054,8 +9064,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8087,8 +9103,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8120,8 +9142,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8153,8 +9181,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8186,8 +9220,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8219,8 +9259,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8252,8 +9298,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8285,8 +9337,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8318,8 +9376,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8351,8 +9415,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8384,8 +9454,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8417,8 +9493,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8450,8 +9532,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8483,8 +9571,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8516,8 +9610,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8549,8 +9649,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8582,8 +9688,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8615,8 +9727,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8648,8 +9766,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8681,8 +9805,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8714,8 +9844,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8747,8 +9883,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8780,8 +9922,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8813,8 +9961,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8846,8 +10000,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8879,8 +10039,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8912,8 +10078,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8945,8 +10117,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8978,8 +10156,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9011,8 +10195,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9044,8 +10234,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9077,8 +10273,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9110,8 +10312,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9143,8 +10351,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9176,8 +10390,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9209,8 +10429,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9242,8 +10468,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9275,8 +10507,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9308,8 +10546,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9341,8 +10585,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9374,8 +10624,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9407,8 +10663,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9440,8 +10702,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9473,8 +10741,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9506,8 +10780,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9539,8 +10819,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9572,8 +10858,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9605,8 +10897,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9638,8 +10936,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9671,8 +10975,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9704,8 +11014,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9737,8 +11053,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9770,8 +11092,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9803,8 +11131,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9836,8 +11170,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9869,8 +11209,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9902,8 +11248,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9935,8 +11287,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9968,8 +11326,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10001,8 +11365,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10034,8 +11404,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10067,8 +11443,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10100,8 +11482,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10133,8 +11521,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10166,8 +11560,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10199,8 +11599,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10232,8 +11638,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10265,8 +11677,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10298,8 +11716,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10331,8 +11755,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10364,8 +11794,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10397,8 +11833,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10430,8 +11872,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10463,8 +11911,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10496,8 +11950,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10529,8 +11989,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10562,8 +12028,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10595,8 +12067,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10628,8 +12106,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10661,8 +12145,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10694,8 +12184,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10727,8 +12223,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10760,8 +12262,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10793,8 +12301,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10826,8 +12340,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10859,8 +12379,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10892,8 +12418,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10925,8 +12457,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10958,8 +12496,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10991,8 +12535,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11024,8 +12574,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11057,8 +12613,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11090,8 +12652,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11123,8 +12691,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11156,8 +12730,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11189,8 +12769,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11222,8 +12808,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11255,8 +12847,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11288,8 +12886,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11321,8 +12925,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11354,8 +12964,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11387,8 +13003,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11420,8 +13042,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11453,8 +13081,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11486,8 +13120,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11519,8 +13159,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11552,8 +13198,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11585,8 +13237,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11618,8 +13276,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11651,8 +13315,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11684,8 +13354,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11717,8 +13393,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11750,8 +13432,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11783,8 +13471,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11816,8 +13510,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11849,8 +13549,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11882,8 +13588,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11915,8 +13627,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11948,8 +13666,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11981,8 +13705,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12014,8 +13744,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12047,8 +13783,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12080,8 +13822,14 @@
         <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12113,8 +13861,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12146,8 +13900,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12179,8 +13939,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12212,8 +13978,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12245,8 +14017,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12278,8 +14056,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12308,11 +14092,17 @@
         <v>2662825.892137602</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12341,11 +14131,17 @@
         <v>2540330.228737602</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12374,11 +14170,17 @@
         <v>2563330.228737602</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12407,11 +14209,17 @@
         <v>2552079.866137601</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12440,11 +14248,17 @@
         <v>2525139.658937601</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12473,11 +14287,17 @@
         <v>2525139.658937601</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12506,11 +14326,17 @@
         <v>2625295.928337601</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12539,11 +14365,17 @@
         <v>2566598.273937602</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12572,11 +14404,17 @@
         <v>3003470.32636255</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12605,11 +14443,17 @@
         <v>3003470.32636255</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12638,11 +14482,17 @@
         <v>3001992.21166255</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12671,11 +14521,17 @@
         <v>3001992.21166255</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12704,11 +14560,17 @@
         <v>3001992.21166255</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12737,11 +14599,17 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12770,11 +14638,17 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12803,11 +14677,17 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12836,11 +14716,17 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12869,11 +14755,17 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12902,11 +14794,17 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12935,11 +14833,17 @@
         <v>2843515.86196255</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12968,11 +14872,17 @@
         <v>3115463.34994628</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13001,11 +14911,17 @@
         <v>3073373.73984628</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13034,11 +14950,17 @@
         <v>3092373.73984628</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13070,8 +14992,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13103,8 +15031,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13136,8 +15070,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13169,8 +15109,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13202,8 +15148,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13235,8 +15187,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13268,8 +15226,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13301,8 +15265,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13334,8 +15304,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13367,8 +15343,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13400,8 +15382,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13433,8 +15421,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13466,8 +15460,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13499,8 +15499,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13532,8 +15538,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13565,8 +15577,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13598,8 +15616,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13631,8 +15655,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13664,8 +15694,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13697,8 +15733,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13730,8 +15772,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13763,8 +15811,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13796,8 +15850,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13829,8 +15889,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13862,8 +15928,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13895,8 +15967,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13928,8 +16006,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13961,8 +16045,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13994,8 +16084,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14027,8 +16123,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14060,8 +16162,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14093,8 +16201,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14126,8 +16240,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14159,8 +16279,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14192,8 +16318,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14225,8 +16357,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14258,8 +16396,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14291,8 +16435,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14324,8 +16474,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14357,8 +16513,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14390,8 +16552,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14423,8 +16591,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14456,8 +16630,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14489,8 +16669,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14522,8 +16708,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14555,8 +16747,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14588,8 +16786,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14621,8 +16825,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14654,8 +16864,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14687,8 +16903,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14720,8 +16942,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14753,8 +16981,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14786,8 +17020,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14819,8 +17059,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14852,8 +17098,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14885,8 +17137,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14918,8 +17176,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14951,8 +17215,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14984,8 +17254,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15017,8 +17293,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15050,8 +17332,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15083,8 +17371,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15116,8 +17410,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15149,8 +17449,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15182,8 +17488,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15215,8 +17527,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15248,8 +17566,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15281,8 +17605,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15314,8 +17644,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15347,8 +17683,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15380,8 +17722,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15413,8 +17761,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15446,8 +17800,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15479,8 +17839,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15512,8 +17878,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15545,8 +17917,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15578,8 +17956,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15611,8 +17995,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15644,8 +18034,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15677,8 +18073,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15710,8 +18112,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15743,8 +18151,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15776,8 +18190,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15809,8 +18229,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15842,8 +18268,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15875,8 +18307,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15908,8 +18346,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15941,8 +18385,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15974,8 +18424,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16007,8 +18463,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16040,8 +18502,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16073,8 +18541,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16106,8 +18580,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16139,8 +18619,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16172,8 +18658,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16205,8 +18697,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16238,8 +18736,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16271,8 +18775,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16304,8 +18814,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16337,8 +18853,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16370,8 +18892,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16403,8 +18931,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16436,8 +18970,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16469,8 +19009,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16502,8 +19048,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16535,8 +19087,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16568,8 +19126,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16601,8 +19165,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16634,8 +19204,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16667,8 +19243,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16700,8 +19282,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16730,11 +19318,17 @@
         <v>1668430.10524628</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16763,11 +19357,17 @@
         <v>1668430.10524628</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16796,11 +19396,17 @@
         <v>2422714.163246281</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16829,11 +19435,17 @@
         <v>2860362.637235522</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16862,11 +19474,17 @@
         <v>3351170.745330125</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16895,11 +19513,17 @@
         <v>4665332.085536554</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16928,11 +19552,17 @@
         <v>4200502.688701261</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16961,11 +19591,17 @@
         <v>3213903.295401261</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16994,11 +19630,17 @@
         <v>3757560.109001261</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17027,11 +19669,17 @@
         <v>4974187.161910987</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17060,11 +19708,17 @@
         <v>8168128.551210987</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17096,8 +19750,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17129,8 +19789,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17162,8 +19828,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17195,8 +19867,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17228,8 +19906,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17261,8 +19945,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17294,8 +19984,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17327,8 +20023,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17360,8 +20062,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17393,8 +20101,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17426,8 +20140,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17459,8 +20179,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17492,8 +20218,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17525,8 +20257,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17558,8 +20296,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17588,15 +20332,23 @@
         <v>15596358.70682291</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L511" t="n">
-        <v>1</v>
-      </c>
-      <c r="M511" t="inlineStr"/>
+        <v>1.135642303433001</v>
+      </c>
+      <c r="M511" t="n">
+        <v>1.001107419712071</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -17621,7 +20373,7 @@
         <v>15596358.70682291</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17654,7 +20406,7 @@
         <v>15421542.21252291</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17687,7 +20439,7 @@
         <v>15421542.21252291</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17720,7 +20472,7 @@
         <v>14029700.01022291</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17753,7 +20505,7 @@
         <v>12106424.3028536</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17819,7 +20571,7 @@
         <v>12650415.34205162</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17852,7 +20604,7 @@
         <v>13509384.3338536</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17885,7 +20637,7 @@
         <v>13231677.81996733</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17918,7 +20670,7 @@
         <v>13231677.81996733</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17951,7 +20703,7 @@
         <v>14277592.68198105</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17984,7 +20736,7 @@
         <v>13791676.65559478</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18017,7 +20769,7 @@
         <v>13791676.65559478</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18050,7 +20802,7 @@
         <v>14296337.11590851</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18083,7 +20835,7 @@
         <v>14296337.11590851</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18116,7 +20868,7 @@
         <v>14908859.1063085</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18149,7 +20901,7 @@
         <v>14908859.1063085</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18182,7 +20934,7 @@
         <v>14908859.1063085</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18215,7 +20967,7 @@
         <v>14908859.1063085</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18248,7 +21000,7 @@
         <v>15284176.9213085</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18281,7 +21033,7 @@
         <v>15284176.9213085</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18314,7 +21066,7 @@
         <v>14681966.8596085</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18347,7 +21099,7 @@
         <v>15039273.1713085</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18380,7 +21132,7 @@
         <v>15039273.1713085</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18413,7 +21165,7 @@
         <v>14434958.87127773</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18446,7 +21198,7 @@
         <v>13460672.78127773</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18479,7 +21231,7 @@
         <v>13461519.46747774</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18512,7 +21264,7 @@
         <v>13077226.51047773</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18545,7 +21297,7 @@
         <v>13215150.69987774</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18578,7 +21330,7 @@
         <v>13081633.11487773</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18611,7 +21363,7 @@
         <v>13114519.29467773</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18644,7 +21396,7 @@
         <v>13114519.29467773</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18677,7 +21429,7 @@
         <v>12968749.20047773</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18743,7 +21495,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18776,7 +21528,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19007,7 +21759,7 @@
         <v>13035839.87827773</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
